--- a/Benchmarking/amphibole/Putirka_Amphibole P-T_v.6_downMay2021.xlsx
+++ b/Benchmarking/amphibole/Putirka_Amphibole P-T_v.6_downMay2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/wieserp_oregonstate_edu/Documents/Postdoc/PyMME/MyBarometers/Thermobar_outer/Benchmarking/amphibole/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Benchmarking\amphibole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{B8864057-2272-48DB-BC41-62166ED6D8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{203AA4D2-999B-45B4-8AA7-C9D31282F913}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119516B3-17BF-4CBD-8695-2CF0D193DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="Tri Plot 8" sheetId="61" r:id="rId12"/>
     <sheet name="End-member comp calcs" sheetId="57" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="500"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2635,9 +2635,9 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3004,8 +3004,14 @@
       <sz val="10"/>
       <name val="Var(--jp-code-font-family)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3036,8 +3042,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3220,6 +3238,36 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD5D5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD5D5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3682,7 +3730,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4024,8 +4072,17 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="456">
@@ -4656,16 +4713,16 @@
                   <c:v>7.0703929210356531</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.007069109430887</c:v>
+                  <c:v>7.3970285191439968</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9542871079555146</c:v>
+                  <c:v>7.3208077629931188</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1498143908785199</c:v>
+                  <c:v>6.6784839765511776</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2228905425347563</c:v>
+                  <c:v>6.5310052714089259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4731,16 +4788,16 @@
                   <c:v>0.68764703391009097</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66982549845682704</c:v>
+                  <c:v>0.56390813627963776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.66595327904638391</c:v>
+                  <c:v>0.5262539987809578</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.80049721160062215</c:v>
+                  <c:v>0.48270163351793316</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.76308400952972189</c:v>
+                  <c:v>0.42158348115069677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4982,16 +5039,16 @@
                   <c:v>0.1401077053494631</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14047449098327816</c:v>
+                  <c:v>0.10410588100286806</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1295685199919267</c:v>
+                  <c:v>0.10607840888262124</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30702504886443349</c:v>
+                  <c:v>0.17607671990185506</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1981377460345175E-2</c:v>
+                  <c:v>0.19102920369975301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5057,16 +5114,16 @@
                   <c:v>5.4579352819446814E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7294478419862245E-2</c:v>
+                  <c:v>2.5054155847427047E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0012202996200928E-2</c:v>
+                  <c:v>2.439024737832611E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14836829117872191</c:v>
+                  <c:v>5.5985132275358576E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1057709594464382E-2</c:v>
+                  <c:v>9.6283069579084946E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5364,16 +5421,16 @@
                   <c:v>7.0703929210356531</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.007069109430887</c:v>
+                  <c:v>7.3970285191439968</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9542871079555146</c:v>
+                  <c:v>7.3208077629931188</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1498143908785199</c:v>
+                  <c:v>6.6784839765511776</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2228905425347563</c:v>
+                  <c:v>6.5310052714089259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5439,16 +5496,16 @@
                   <c:v>0.68764703391009097</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66982549845682704</c:v>
+                  <c:v>0.56390813627963776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.66595327904638391</c:v>
+                  <c:v>0.5262539987809578</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.80049721160062215</c:v>
+                  <c:v>0.48270163351793316</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.76308400952972189</c:v>
+                  <c:v>0.42158348115069677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5984,16 +6041,16 @@
                   <c:v>0.11972623382285037</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11930993934728049</c:v>
+                  <c:v>0.1025283229888706</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10651801128689374</c:v>
+                  <c:v>0.10630413096456476</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26545918491045517</c:v>
+                  <c:v>0.17338395633874643</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.3568649574882503E-2</c:v>
+                  <c:v>0.16877890171099383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6059,16 +6116,16 @@
                   <c:v>1.0509846337854171E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.162488380205509E-2</c:v>
+                  <c:v>2.1804178313516068E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1624351244130979E-2</c:v>
+                  <c:v>2.4857528969004398E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7419326427391212E-2</c:v>
+                  <c:v>4.9650279546207605E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.5455238574826591E-4</c:v>
+                  <c:v>4.4233164951901313E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6425,16 +6482,16 @@
                   <c:v>0.10637278353744314</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1069630394097888</c:v>
+                  <c:v>5.7614147994576773E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11012456255972458</c:v>
+                  <c:v>5.8365807674577122E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.35020930743965323</c:v>
+                  <c:v>0.12387193305868313</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8270175040240303E-2</c:v>
+                  <c:v>0.17984773290219208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6500,16 +6557,16 @@
                   <c:v>1.5521123698323603E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6344908282188535E-2</c:v>
+                  <c:v>3.0186834601181826E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6087123853477603E-2</c:v>
+                  <c:v>3.4136011238938745E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.9368327442326609E-2</c:v>
+                  <c:v>6.5606111807560957E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0973836154540383E-4</c:v>
+                  <c:v>5.5584565558162782E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6867,16 +6924,16 @@
                   <c:v>0.15585743639405433</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.19314864610598939</c:v>
+                  <c:v>0.16662621588156826</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.19198083014945508</c:v>
+                  <c:v>0.16348060940067441</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12428438137253806</c:v>
+                  <c:v>0.24359536958108391</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0380711013070845</c:v>
+                  <c:v>0.21772070250628189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6942,16 +6999,16 @@
                   <c:v>2.7250545864002638E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0779243618338045E-2</c:v>
+                  <c:v>6.895783668417213E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.053780271905748E-2</c:v>
+                  <c:v>8.2283931496030416E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8304577152951817E-2</c:v>
+                  <c:v>0.16472830759731966</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5598978584988941E-3</c:v>
+                  <c:v>0.15139102266449919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7308,16 +7365,16 @@
                   <c:v>9.4815096189856146E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10459288579534319</c:v>
+                  <c:v>4.2232115227731168E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.10978100906482617</c:v>
+                  <c:v>5.0116548384198156E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.20643395547757326</c:v>
+                  <c:v>8.5988443256794347E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.987322014110631E-2</c:v>
+                  <c:v>0.10324241892739054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7383,16 +7440,16 @@
                   <c:v>5.7015838880612318E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.9321460333202451E-2</c:v>
+                  <c:v>2.6529696351762687E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.1170582698763319E-2</c:v>
+                  <c:v>2.5691882717609974E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.16597470875032111</c:v>
+                  <c:v>6.1138904326686706E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.955423716350907E-2</c:v>
+                  <c:v>0.10505409015652346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7749,16 +7806,16 @@
                   <c:v>0.1139220968555526</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12145034062277514</c:v>
+                  <c:v>7.0452907091532069E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12012333206706426</c:v>
+                  <c:v>7.912869855440241E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2235851837684506</c:v>
+                  <c:v>0.12019121144033791</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.7045217445049826E-3</c:v>
+                  <c:v>0.11386803193655001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7824,16 +7881,16 @@
                   <c:v>9.4355291012649875E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.2863921110261302E-2</c:v>
+                  <c:v>7.786808325090018E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.193686890658787E-2</c:v>
+                  <c:v>7.9305246763187329E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.20454016850977919</c:v>
+                  <c:v>0.12649125104368966</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.2063063103645943E-2</c:v>
+                  <c:v>0.12511144397774188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8190,16 +8247,16 @@
                   <c:v>0.24733235999984976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.27256031424634641</c:v>
+                  <c:v>0.19595252524148099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27279743157497549</c:v>
+                  <c:v>0.2234903392429195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33717183856543853</c:v>
+                  <c:v>0.31438535846770521</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.15434473626659936</c:v>
+                  <c:v>0.30125546088485522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8265,16 +8322,16 @@
                   <c:v>0.20485153845282167</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20840632797051423</c:v>
+                  <c:v>0.21657654990594019</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.18607681792021502</c:v>
+                  <c:v>0.22398898031493139</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30845149716337472</c:v>
+                  <c:v>0.33086443530972254</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.19185595563777574</c:v>
+                  <c:v>0.33100164353842904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8632,16 +8689,16 @@
                   <c:v>4.7059920404395245E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9976006637209844E-2</c:v>
+                  <c:v>4.1900911512981122E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.1045363846122863E-2</c:v>
+                  <c:v>4.5279902976917322E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12520664592365177</c:v>
+                  <c:v>9.6528618064225191E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5843511932105374E-2</c:v>
+                  <c:v>0.11236370051977551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8707,16 +8764,16 @@
                   <c:v>5.9584797090543658E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2406813556303189E-2</c:v>
+                  <c:v>2.6537594763798512E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.4609023212525402E-2</c:v>
+                  <c:v>2.5804379845647367E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.18019189122714172</c:v>
+                  <c:v>6.053592178154743E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0310489797944365E-2</c:v>
+                  <c:v>0.10414275767354357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9695,14 +9752,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9846,14 +9903,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -9988,14 +10045,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10130,14 +10187,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10272,14 +10329,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10414,14 +10471,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10556,14 +10613,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10736,14 +10793,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -10878,14 +10935,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11020,14 +11077,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11162,14 +11219,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11304,14 +11361,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11446,14 +11503,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11668,14 +11725,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -11915,14 +11972,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12137,14 +12194,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12297,14 +12354,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12439,14 +12496,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12581,14 +12638,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12723,14 +12780,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -12881,14 +12938,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13023,14 +13080,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13203,14 +13260,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13425,14 +13482,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13585,14 +13642,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13743,14 +13800,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -13885,14 +13942,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14027,14 +14084,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14169,14 +14226,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14349,14 +14406,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14558,14 +14615,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14700,14 +14757,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14850,14 +14907,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -14992,14 +15049,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15134,14 +15191,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15276,14 +15333,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15520,14 +15577,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15662,14 +15719,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15804,14 +15861,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -15946,14 +16003,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16088,14 +16145,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16248,14 +16305,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16390,14 +16447,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16532,14 +16589,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16674,14 +16731,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -16816,14 +16873,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17778,14 +17835,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -17929,14 +17986,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18071,14 +18128,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18213,14 +18270,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18355,14 +18412,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18497,14 +18554,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18639,14 +18696,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18799,14 +18856,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -18941,14 +18998,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19121,14 +19178,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19272,14 +19329,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19414,14 +19471,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19556,14 +19613,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19698,14 +19755,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19840,14 +19897,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -19982,14 +20039,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20124,14 +20181,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20266,14 +20323,14 @@
         </a:ln>
         <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -20821,8 +20878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GW559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.33203125" defaultRowHeight="13.2"/>
@@ -23353,7 +23410,7 @@
       </c>
       <c r="AE16" s="36"/>
       <c r="AF16" s="143">
-        <f t="shared" ref="AF15:AF36" si="151">(DN16/DP16)/(CM16/CO16)</f>
+        <f t="shared" ref="AF16:AF36" si="151">(DN16/DP16)/(CM16/CO16)</f>
         <v>0.26977199216438374</v>
       </c>
       <c r="AG16" s="35">
@@ -34936,7 +34993,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:205" s="22" customFormat="1" ht="18" customHeight="1">
+    <row r="32" spans="1:205" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A32" s="97" t="s">
         <v>165</v>
       </c>
@@ -35663,7 +35720,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="1:205" s="22" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="1:205" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A33" s="97" t="s">
         <v>165</v>
       </c>
@@ -35672,11 +35729,11 @@
       </c>
       <c r="C33" s="36">
         <f t="shared" si="0"/>
-        <v>816.86607836969324</v>
+        <v>753.40736847495702</v>
       </c>
       <c r="D33" s="36">
         <f t="shared" si="161"/>
-        <v>-0.14795463503848083</v>
+        <v>-1.0045741598956397</v>
       </c>
       <c r="F33" s="96">
         <v>71.29535056657663</v>
@@ -35714,71 +35771,73 @@
       <c r="Q33" s="95">
         <v>5</v>
       </c>
-      <c r="S33" s="99">
-        <v>47.86</v>
-      </c>
-      <c r="T33" s="99">
-        <v>1.53</v>
-      </c>
-      <c r="U33" s="99">
-        <v>7.3</v>
-      </c>
-      <c r="V33" s="99">
-        <v>12.987</v>
-      </c>
-      <c r="W33" s="98">
-        <v>0.32</v>
-      </c>
-      <c r="X33" s="99">
-        <v>14.78</v>
-      </c>
-      <c r="Y33" s="99">
-        <v>10.75</v>
-      </c>
-      <c r="Z33" s="98">
-        <v>1.42</v>
-      </c>
-      <c r="AA33" s="98">
-        <v>0.17</v>
-      </c>
-      <c r="AB33" s="98"/>
+      <c r="S33" s="144">
+        <v>50.04</v>
+      </c>
+      <c r="T33" s="145">
+        <v>0.67</v>
+      </c>
+      <c r="U33" s="145">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="V33" s="145">
+        <v>17.48</v>
+      </c>
+      <c r="W33" s="145">
+        <v>0.44</v>
+      </c>
+      <c r="X33" s="146">
+        <v>12.68</v>
+      </c>
+      <c r="Y33" s="145">
+        <v>11.06</v>
+      </c>
+      <c r="Z33" s="145">
+        <v>0.92</v>
+      </c>
+      <c r="AA33" s="145">
+        <v>0.39</v>
+      </c>
+      <c r="AB33" s="145">
+        <v>0</v>
+      </c>
       <c r="AD33" s="35">
         <f t="shared" si="1"/>
-        <v>3.6330910119113762</v>
+        <v>14.522175173000077</v>
       </c>
       <c r="AE33" s="36"/>
       <c r="AF33" s="143">
         <f t="shared" si="151"/>
-        <v>0.26997040846537423</v>
+        <v>0.42354926448425301</v>
       </c>
       <c r="AG33" s="35">
         <f t="shared" si="2"/>
-        <v>72.919361954638845</v>
+        <v>65.139424765079326</v>
       </c>
       <c r="AH33" s="35">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>9.5</v>
       </c>
       <c r="AI33" s="35">
         <f t="shared" si="4"/>
-        <v>-0.14795463503848083</v>
+        <v>-1.0045741598956397</v>
       </c>
       <c r="AJ33" s="35">
         <f t="shared" si="5"/>
-        <v>1.5962264991794193</v>
+        <v>10.711157639240607</v>
       </c>
       <c r="AK33" s="36"/>
       <c r="AL33" s="37">
         <f t="shared" si="162"/>
-        <v>801.11990902365005</v>
+        <v>684.6109011016058</v>
       </c>
       <c r="AM33" s="37">
         <f t="shared" si="6"/>
-        <v>800.39097717232289</v>
+        <v>708.49146119166619</v>
       </c>
       <c r="AN33" s="37">
         <f t="shared" si="163"/>
-        <v>810.93887087752978</v>
+        <v>741.37011218471093</v>
       </c>
       <c r="AO33" s="37">
         <f t="shared" si="164"/>
@@ -35786,29 +35845,29 @@
       </c>
       <c r="AP33" s="37">
         <f t="shared" si="8"/>
-        <v>829.64958953810765</v>
+        <v>799.69689163624116</v>
       </c>
       <c r="AQ33" s="37">
         <f t="shared" si="9"/>
-        <v>810.60994989678227</v>
+        <v>753.34243513790125</v>
       </c>
       <c r="AR33" s="37">
         <f t="shared" si="10"/>
-        <v>823.29419614609469</v>
+        <v>757.66500211061521</v>
       </c>
       <c r="AS33" s="37">
         <f t="shared" si="11"/>
-        <v>829.05185458846552</v>
+        <v>752.20886472232235</v>
       </c>
       <c r="AT33"/>
       <c r="AU33" s="35">
         <f t="shared" si="154"/>
-        <v>2.4956759327930187</v>
+        <v>1.3095544399160799</v>
       </c>
       <c r="AV33"/>
       <c r="AW33" s="37">
         <f t="shared" si="165"/>
-        <v>875.36611488926565</v>
+        <v>884.79297190646651</v>
       </c>
       <c r="AX33" s="37">
         <f t="shared" si="166"/>
@@ -35817,73 +35876,73 @@
       <c r="AY33" s="38"/>
       <c r="AZ33" s="50">
         <f t="shared" si="14"/>
-        <v>-1.2298116615890999</v>
+        <v>3.45751210365507E-2</v>
       </c>
       <c r="BA33" s="38"/>
       <c r="BB33" s="35">
         <f t="shared" si="167"/>
-        <v>1.0547355622005705</v>
+        <v>0.39809770880149498</v>
       </c>
       <c r="BC33" s="35">
         <f t="shared" si="168"/>
-        <v>1.3137468490066746</v>
+        <v>0.58208617944838403</v>
       </c>
       <c r="BD33" s="35">
         <f t="shared" si="169"/>
-        <v>0.68476892351280394</v>
+        <v>-1.623810663627707</v>
       </c>
       <c r="BE33" s="35">
         <f t="shared" si="170"/>
-        <v>-6.2431319931256164</v>
+        <v>-13.028379458423723</v>
       </c>
       <c r="BF33" s="35">
         <f t="shared" si="171"/>
-        <v>2.4662287169441282</v>
+        <v>1.5438779069164807</v>
       </c>
       <c r="BG33" s="35">
         <f t="shared" si="172"/>
-        <v>0.9253668802488576</v>
+        <v>0.49016482571500097</v>
       </c>
       <c r="BH33" s="36"/>
       <c r="BI33" s="50">
         <f t="shared" si="173"/>
-        <v>0.33017450154317279</v>
+        <v>0.43609186372036218</v>
       </c>
       <c r="BJ33" s="50" t="str">
         <f t="shared" si="21"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="BK33" s="35">
         <f t="shared" si="174"/>
-        <v>2.4159459984503737</v>
+        <v>-0.14304193782454977</v>
       </c>
       <c r="BL33" s="35">
         <f t="shared" si="175"/>
-        <v>2.0197290863066844</v>
+        <v>0.71401579302514162</v>
       </c>
       <c r="BM33" s="35">
         <f t="shared" si="176"/>
-        <v>1.6772924235263271</v>
+        <v>0.78996871793214551</v>
       </c>
       <c r="BN33" s="35">
         <f t="shared" si="177"/>
-        <v>2.3443211592962436</v>
+        <v>-0.52500129807762708</v>
       </c>
       <c r="BO33" s="35">
         <f t="shared" si="178"/>
-        <v>1.8682408694721833</v>
+        <v>-0.28375097355821977</v>
       </c>
       <c r="BP33" s="35">
         <f t="shared" si="27"/>
-        <v>0.61811123955910174</v>
+        <v>-0.18577847548634852</v>
       </c>
       <c r="BQ33" s="35">
         <f t="shared" si="179"/>
-        <v>2.8059459984503738</v>
+        <v>0.24695806217545035</v>
       </c>
       <c r="BR33" s="35">
         <f t="shared" si="180"/>
-        <v>2.9858455174202341</v>
+        <v>0.5642187626153361</v>
       </c>
       <c r="BS33" s="23"/>
       <c r="BT33" s="23">
@@ -36052,15 +36111,15 @@
       </c>
       <c r="DJ33" s="22">
         <f t="shared" si="69"/>
-        <v>0.79654751740471308</v>
+        <v>0.83282987402699205</v>
       </c>
       <c r="DK33" s="22">
         <f t="shared" si="70"/>
-        <v>1.9154018337781738E-2</v>
+        <v>8.3877073766756641E-3</v>
       </c>
       <c r="DL33" s="22">
         <f t="shared" si="71"/>
-        <v>7.1596002393071859E-2</v>
+        <v>4.2271064426594479E-2</v>
       </c>
       <c r="DM33" s="22">
         <f t="shared" si="72"/>
@@ -36068,43 +36127,43 @@
       </c>
       <c r="DN33" s="22">
         <f t="shared" si="73"/>
-        <v>0.18076062266167825</v>
+        <v>0.24329681097452344</v>
       </c>
       <c r="DO33" s="22">
         <f t="shared" si="74"/>
-        <v>4.5110132158590307E-3</v>
+        <v>6.2026431718061673E-3</v>
       </c>
       <c r="DP33" s="22">
         <f t="shared" si="75"/>
-        <v>0.36670934190807947</v>
+        <v>0.31460584948541598</v>
       </c>
       <c r="DQ33" s="22">
         <f t="shared" si="76"/>
-        <v>0.19169932985480784</v>
+        <v>0.19722740355294649</v>
       </c>
       <c r="DR33" s="22">
         <f t="shared" si="77"/>
-        <v>2.2911022944905442E-2</v>
+        <v>1.4843761344586625E-2</v>
       </c>
       <c r="DS33" s="22">
         <f t="shared" si="78"/>
-        <v>1.8047475476665677E-3</v>
+        <v>4.1403031975880081E-3</v>
       </c>
       <c r="DT33" s="22">
         <f t="shared" si="198"/>
-        <v>1.6556936162685632</v>
+        <v>1.6638054175571289</v>
       </c>
       <c r="DU33" s="22">
         <f t="shared" si="80"/>
-        <v>0.79654751740471308</v>
+        <v>0.83282987402699205</v>
       </c>
       <c r="DV33" s="22">
         <f t="shared" si="81"/>
-        <v>1.9154018337781738E-2</v>
+        <v>8.3877073766756641E-3</v>
       </c>
       <c r="DW33" s="22">
         <f t="shared" si="82"/>
-        <v>0.14319200478614372</v>
+        <v>8.4542128853188958E-2</v>
       </c>
       <c r="DX33" s="22">
         <f t="shared" si="83"/>
@@ -36112,39 +36171,39 @@
       </c>
       <c r="DZ33" s="22">
         <f t="shared" si="84"/>
-        <v>0.18076062266167825</v>
+        <v>0.24329681097452344</v>
       </c>
       <c r="EA33" s="22">
         <f t="shared" si="85"/>
-        <v>4.5110132158590307E-3</v>
+        <v>6.2026431718061673E-3</v>
       </c>
       <c r="EB33" s="22">
         <f t="shared" si="86"/>
-        <v>0.36670934190807947</v>
+        <v>0.31460584948541598</v>
       </c>
       <c r="EC33" s="22">
         <f t="shared" si="87"/>
-        <v>0.19169932985480784</v>
+        <v>0.19722740355294649</v>
       </c>
       <c r="ED33" s="22">
         <f t="shared" si="88"/>
-        <v>4.5822045889810883E-2</v>
+        <v>2.9687522689173251E-2</v>
       </c>
       <c r="EE33" s="22">
         <f t="shared" si="89"/>
-        <v>3.6094950953331354E-3</v>
+        <v>8.2806063951760163E-3</v>
       </c>
       <c r="EG33" s="22">
         <f t="shared" si="199"/>
-        <v>1.5930950348094262</v>
+        <v>1.6656597480539841</v>
       </c>
       <c r="EH33" s="22">
         <f t="shared" si="200"/>
-        <v>3.8308036675563477E-2</v>
+        <v>1.6775414753351328E-2</v>
       </c>
       <c r="EI33" s="22">
         <f t="shared" si="201"/>
-        <v>0.21478800717921559</v>
+        <v>0.12681319327978344</v>
       </c>
       <c r="EJ33" s="22">
         <f t="shared" si="202"/>
@@ -36152,47 +36211,47 @@
       </c>
       <c r="EL33" s="22">
         <f t="shared" si="203"/>
-        <v>0.18076062266167825</v>
+        <v>0.24329681097452344</v>
       </c>
       <c r="EM33" s="22">
         <f t="shared" si="204"/>
-        <v>4.5110132158590307E-3</v>
+        <v>6.2026431718061673E-3</v>
       </c>
       <c r="EN33" s="22">
         <f t="shared" si="205"/>
-        <v>0.36670934190807947</v>
+        <v>0.31460584948541598</v>
       </c>
       <c r="EO33" s="22">
         <f t="shared" si="206"/>
-        <v>0.19169932985480784</v>
+        <v>0.19722740355294649</v>
       </c>
       <c r="EP33" s="22">
         <f t="shared" si="207"/>
-        <v>2.2911022944905442E-2</v>
+        <v>1.4843761344586625E-2</v>
       </c>
       <c r="EQ33" s="22">
         <f t="shared" si="208"/>
-        <v>1.8047475476665677E-3</v>
+        <v>4.1403031975880081E-3</v>
       </c>
       <c r="ER33" s="22">
         <f t="shared" si="209"/>
-        <v>2.6145871567972017</v>
+        <v>2.5895651278139851</v>
       </c>
       <c r="ES33" s="22">
         <f t="shared" si="210"/>
-        <v>8.7967998849096993</v>
+        <v>8.8818001729177389</v>
       </c>
       <c r="EU33" s="86">
         <f t="shared" si="211"/>
-        <v>7.007069109430887</v>
+        <v>7.3970285191439968</v>
       </c>
       <c r="EV33" s="86">
         <f t="shared" si="212"/>
-        <v>0.16849406630935668</v>
+        <v>7.4497940828541304E-2</v>
       </c>
       <c r="EW33" s="86">
         <f t="shared" si="213"/>
-        <v>1.2596314112227383</v>
+        <v>0.75088629466708745</v>
       </c>
       <c r="EX33" s="86">
         <f t="shared" si="214"/>
@@ -36201,39 +36260,39 @@
       <c r="EY33" s="86"/>
       <c r="EZ33" s="86">
         <f t="shared" si="215"/>
-        <v>1.5901150246264568</v>
+        <v>2.1609136577838566</v>
       </c>
       <c r="FA33" s="86">
         <f t="shared" si="216"/>
-        <v>3.9682480538094853E-2</v>
+        <v>5.5090637195895048E-2</v>
       </c>
       <c r="FB33" s="86">
         <f t="shared" si="217"/>
-        <v>3.2258686966923049</v>
+        <v>2.7942662883604998</v>
       </c>
       <c r="FC33" s="86">
         <f t="shared" si="218"/>
-        <v>1.6863406428040402</v>
+        <v>1.7517343869806767</v>
       </c>
       <c r="FD33" s="86">
         <f t="shared" si="219"/>
-        <v>0.40308736800981532</v>
+        <v>0.26367864415419828</v>
       </c>
       <c r="FE33" s="86">
         <f t="shared" si="220"/>
-        <v>3.175200603920865E-2</v>
+        <v>7.3546691312538076E-2</v>
       </c>
       <c r="FF33" s="22">
         <f t="shared" si="221"/>
-        <v>14.977201431623879</v>
+        <v>14.984417724960554</v>
       </c>
       <c r="FG33" s="22">
         <f t="shared" si="222"/>
-        <v>15.412040805672904</v>
+        <v>15.321643060427292</v>
       </c>
       <c r="FH33" s="22">
         <f t="shared" si="223"/>
-        <v>13.290860788819838</v>
+        <v>13.232683337979879</v>
       </c>
       <c r="FI33" s="22" t="str">
         <f t="shared" si="224"/>
@@ -36241,11 +36300,11 @@
       </c>
       <c r="FJ33" s="22">
         <f t="shared" si="225"/>
-        <v>443.00982560312451</v>
+        <v>385.42479752474839</v>
       </c>
       <c r="FK33" s="22">
         <f t="shared" si="158"/>
-        <v>0.66982549845682704</v>
+        <v>0.56390813627963776</v>
       </c>
       <c r="FL33" s="22">
         <f t="shared" si="226"/>
@@ -36254,27 +36313,27 @@
       <c r="FM33" s="87"/>
       <c r="FN33" s="87">
         <f t="shared" si="118"/>
-        <v>-14.704331703312576</v>
+        <v>-16.03580484690163</v>
       </c>
       <c r="FO33" s="22">
         <f t="shared" si="119"/>
-        <v>8.2776062248620844E-2</v>
+        <v>0.11870548682254739</v>
       </c>
       <c r="FP33" s="88">
         <f t="shared" si="227"/>
-        <v>0.11292799137380692</v>
+        <v>0.20729758600176695</v>
       </c>
       <c r="FQ33" s="88">
         <f t="shared" si="228"/>
-        <v>1.47718703325265</v>
+        <v>1.9536160717820896</v>
       </c>
       <c r="FR33" s="87">
         <f t="shared" si="229"/>
-        <v>7.007069109430887</v>
+        <v>7.3970285191439968</v>
       </c>
       <c r="FS33" s="87">
         <f t="shared" si="230"/>
-        <v>0.99293089056911299</v>
+        <v>0.60297148085600316</v>
       </c>
       <c r="FT33" s="87">
         <f t="shared" si="231"/>
@@ -36286,7 +36345,7 @@
       </c>
       <c r="FV33" s="87">
         <f t="shared" si="233"/>
-        <v>0.26670052065362526</v>
+        <v>0.14791481381108429</v>
       </c>
       <c r="FW33" s="87">
         <f t="shared" si="234"/>
@@ -36294,27 +36353,27 @@
       </c>
       <c r="FX33" s="87">
         <f t="shared" si="235"/>
-        <v>0.11292799137380692</v>
+        <v>0.20729758600176695</v>
       </c>
       <c r="FY33" s="87">
         <f t="shared" si="236"/>
-        <v>0.16849406630935668</v>
+        <v>7.4497940828541304E-2</v>
       </c>
       <c r="FZ33" s="87">
         <f t="shared" si="237"/>
-        <v>0.5481225783367889</v>
+        <v>0.42971034064139257</v>
       </c>
       <c r="GA33" s="87">
         <f t="shared" si="238"/>
-        <v>3.2258686966923049</v>
+        <v>2.7942662883604998</v>
       </c>
       <c r="GB33" s="87">
         <f t="shared" si="239"/>
-        <v>3.7739912750290938</v>
+        <v>3.2239766290018923</v>
       </c>
       <c r="GC33" s="87">
         <f t="shared" si="240"/>
-        <v>1.2260087249709062</v>
+        <v>1.7760233709981077</v>
       </c>
       <c r="GD33" s="87">
         <f t="shared" si="241"/>
@@ -36334,27 +36393,27 @@
       </c>
       <c r="GH33" s="86">
         <f t="shared" si="245"/>
-        <v>0.25117830828174381</v>
+        <v>0.17759270078398193</v>
       </c>
       <c r="GI33" s="86">
         <f t="shared" si="246"/>
-        <v>3.9682480538094853E-2</v>
+        <v>5.5090637195895048E-2</v>
       </c>
       <c r="GJ33" s="89">
         <f t="shared" si="247"/>
-        <v>0.29086078881983868</v>
+        <v>0.23268333797987698</v>
       </c>
       <c r="GK33" s="89">
         <f t="shared" si="248"/>
-        <v>0.29086078881983868</v>
+        <v>0.23268333797987698</v>
       </c>
       <c r="GL33" s="87">
         <f t="shared" si="249"/>
-        <v>1.6863406428040402</v>
+        <v>1.7517343869806767</v>
       </c>
       <c r="GM33" s="87">
         <f t="shared" si="250"/>
-        <v>2.2798568376121153E-2</v>
+        <v>1.5582275039446314E-2</v>
       </c>
       <c r="GN33" s="89">
         <f t="shared" si="251"/>
@@ -36368,15 +36427,15 @@
       <c r="GQ33" s="87"/>
       <c r="GR33" s="87">
         <f t="shared" si="253"/>
-        <v>0.38028879963369416</v>
+        <v>0.24809636911475197</v>
       </c>
       <c r="GS33" s="87">
         <f t="shared" si="254"/>
-        <v>3.175200603920865E-2</v>
+        <v>7.3546691312538076E-2</v>
       </c>
       <c r="GT33" s="87">
         <f t="shared" si="255"/>
-        <v>0.4120408056729028</v>
+        <v>0.32164306042729007</v>
       </c>
       <c r="GU33" s="86">
         <f t="shared" si="256"/>
@@ -36384,13 +36443,13 @@
       </c>
       <c r="GV33" s="86">
         <f t="shared" si="257"/>
-        <v>0.40308736800981532</v>
+        <v>0.26367864415419828</v>
       </c>
       <c r="GW33" s="142" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:205" s="22" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="1:205" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A34" s="97" t="s">
         <v>165</v>
       </c>
@@ -36399,11 +36458,11 @@
       </c>
       <c r="C34" s="36">
         <f t="shared" si="0"/>
-        <v>819.5243999093027</v>
+        <v>756.43549712302922</v>
       </c>
       <c r="D34" s="36">
         <f t="shared" si="161"/>
-        <v>-5.1007771792047407E-2</v>
+        <v>-0.98435629737081953</v>
       </c>
       <c r="F34" s="96">
         <v>71.362822784228072</v>
@@ -36441,71 +36500,73 @@
       <c r="Q34" s="95">
         <v>5</v>
       </c>
-      <c r="S34" s="99">
-        <v>47.44</v>
-      </c>
-      <c r="T34" s="99">
-        <v>1.65</v>
-      </c>
-      <c r="U34" s="99">
-        <v>7.47</v>
-      </c>
-      <c r="V34" s="99">
-        <v>13.170999999999999</v>
-      </c>
-      <c r="W34" s="98">
-        <v>0.36</v>
-      </c>
-      <c r="X34" s="99">
-        <v>14.73</v>
-      </c>
-      <c r="Y34" s="99">
-        <v>10.85</v>
-      </c>
-      <c r="Z34" s="98">
-        <v>1.36</v>
-      </c>
-      <c r="AA34" s="98">
-        <v>0.17</v>
-      </c>
-      <c r="AB34" s="98"/>
+      <c r="S34" s="144">
+        <v>48.42</v>
+      </c>
+      <c r="T34" s="145">
+        <v>0.91</v>
+      </c>
+      <c r="U34" s="145">
+        <v>4.71</v>
+      </c>
+      <c r="V34" s="145">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="W34" s="145">
+        <v>0.37</v>
+      </c>
+      <c r="X34" s="146">
+        <v>11.41</v>
+      </c>
+      <c r="Y34" s="145">
+        <v>10.88</v>
+      </c>
+      <c r="Z34" s="145">
+        <v>1.02</v>
+      </c>
+      <c r="AA34" s="145">
+        <v>0.46</v>
+      </c>
+      <c r="AB34" s="145">
+        <v>0.01</v>
+      </c>
       <c r="AD34" s="35">
         <f t="shared" si="1"/>
-        <v>2.3501645877307045</v>
+        <v>13.016384372959401</v>
       </c>
       <c r="AE34" s="36"/>
       <c r="AF34" s="143">
         <f t="shared" si="151"/>
-        <v>0.26903537105254677</v>
+        <v>0.48283203721152629</v>
       </c>
       <c r="AG34" s="35">
         <f t="shared" si="2"/>
-        <v>72.792700086758671</v>
+        <v>65.525355917219827</v>
       </c>
       <c r="AH34" s="35">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>7.7</v>
       </c>
       <c r="AI34" s="35">
         <f t="shared" si="4"/>
-        <v>-5.1007771792047407E-2</v>
+        <v>-0.98435629737081953</v>
       </c>
       <c r="AJ34" s="35">
         <f t="shared" si="5"/>
-        <v>1.0829697614142884</v>
+        <v>8.917574579403329</v>
       </c>
       <c r="AK34" s="36"/>
       <c r="AL34" s="37">
         <f t="shared" si="162"/>
-        <v>806.3079907561447</v>
+        <v>690.99385346086331</v>
       </c>
       <c r="AM34" s="37">
         <f t="shared" si="6"/>
-        <v>804.3487312075905</v>
+        <v>709.3431146374877</v>
       </c>
       <c r="AN34" s="37">
         <f t="shared" si="163"/>
-        <v>820.35517994073621</v>
+        <v>754.96789508202755</v>
       </c>
       <c r="AO34" s="37">
         <f t="shared" si="164"/>
@@ -36513,29 +36574,29 @@
       </c>
       <c r="AP34" s="37">
         <f t="shared" si="8"/>
-        <v>824.99778599981244</v>
+        <v>806.81814835268233</v>
       </c>
       <c r="AQ34" s="37">
         <f t="shared" si="9"/>
-        <v>811.14239953780668</v>
+        <v>755.98695349208072</v>
       </c>
       <c r="AR34" s="37">
         <f t="shared" si="10"/>
-        <v>827.57779203140058</v>
+        <v>750.59404293253715</v>
       </c>
       <c r="AS34" s="37">
         <f t="shared" si="11"/>
-        <v>833.52185727307926</v>
+        <v>754.83650649870344</v>
       </c>
       <c r="AT34"/>
       <c r="AU34" s="35">
         <f t="shared" si="154"/>
-        <v>2.5844552364732953</v>
+        <v>1.4786906230962107</v>
       </c>
       <c r="AV34"/>
       <c r="AW34" s="37">
         <f t="shared" si="165"/>
-        <v>874.091303104281</v>
+        <v>888.76782117309324</v>
       </c>
       <c r="AX34" s="37">
         <f t="shared" si="166"/>
@@ -36544,73 +36605,73 @@
       <c r="AY34" s="38"/>
       <c r="AZ34" s="50">
         <f t="shared" si="14"/>
-        <v>-1.1894016205819073</v>
+        <v>9.3708504302752391E-2</v>
       </c>
       <c r="BA34" s="38"/>
       <c r="BB34" s="35">
         <f t="shared" si="167"/>
-        <v>1.0653204378781524</v>
+        <v>0.41716326113503666</v>
       </c>
       <c r="BC34" s="35">
         <f t="shared" si="168"/>
-        <v>1.3763478198405952</v>
+        <v>0.60828060665764083</v>
       </c>
       <c r="BD34" s="35">
         <f t="shared" si="169"/>
-        <v>0.9129167128587079</v>
+        <v>-1.53063277372096</v>
       </c>
       <c r="BE34" s="35">
         <f t="shared" si="170"/>
-        <v>-6.8163760988267512</v>
+        <v>-12.233177415291204</v>
       </c>
       <c r="BF34" s="35">
         <f t="shared" si="171"/>
-        <v>2.2565720976663619</v>
+        <v>1.7095042137867926</v>
       </c>
       <c r="BG34" s="35">
         <f t="shared" si="172"/>
-        <v>0.95850437144003675</v>
+        <v>0.54819349829720643</v>
       </c>
       <c r="BH34" s="36"/>
       <c r="BI34" s="50">
         <f t="shared" si="173"/>
-        <v>0.33404672095361615</v>
+        <v>0.47374600121904209</v>
       </c>
       <c r="BJ34" s="50" t="str">
         <f t="shared" si="21"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="BK34" s="35">
         <f t="shared" si="174"/>
-        <v>2.5716252136912106</v>
+        <v>0.30162861835298838</v>
       </c>
       <c r="BL34" s="35">
         <f t="shared" si="175"/>
-        <v>2.1207158495770519</v>
+        <v>0.89303179544306233</v>
       </c>
       <c r="BM34" s="35">
         <f t="shared" si="176"/>
-        <v>1.7559096664466076</v>
+        <v>0.90039252487383115</v>
       </c>
       <c r="BN34" s="35">
         <f t="shared" si="177"/>
-        <v>2.5188799612760286</v>
+        <v>-2.6404491548538189E-2</v>
       </c>
       <c r="BO34" s="35">
         <f t="shared" si="178"/>
-        <v>1.999159970957022</v>
+        <v>9.0196631338596678E-2</v>
       </c>
       <c r="BP34" s="35">
         <f t="shared" si="27"/>
-        <v>0.66924753908539758</v>
+        <v>0.14581007549156788</v>
       </c>
       <c r="BQ34" s="35">
         <f t="shared" si="179"/>
-        <v>2.9616252136912107</v>
+        <v>0.6916286183529885</v>
       </c>
       <c r="BR34" s="35">
         <f t="shared" si="180"/>
-        <v>3.1331681942684213</v>
+        <v>0.98502032273563112</v>
       </c>
       <c r="BS34" s="23"/>
       <c r="BT34" s="23">
@@ -36779,188 +36840,188 @@
       </c>
       <c r="DJ34" s="22">
         <f t="shared" si="69"/>
-        <v>0.78955733860592536</v>
+        <v>0.80586775580309666</v>
       </c>
       <c r="DK34" s="22">
         <f t="shared" si="70"/>
-        <v>2.0656294285843053E-2</v>
+        <v>1.1392259272798289E-2</v>
       </c>
       <c r="DL34" s="22">
         <f t="shared" si="71"/>
-        <v>7.3263306558389973E-2</v>
+        <v>4.6194133050872395E-2</v>
       </c>
       <c r="DM34" s="22">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>6.579544721823429E-5</v>
       </c>
       <c r="DN34" s="22">
         <f t="shared" si="73"/>
-        <v>0.18332164172456794</v>
+        <v>0.25484923392125419</v>
       </c>
       <c r="DO34" s="22">
         <f t="shared" si="74"/>
-        <v>5.0748898678414098E-3</v>
+        <v>5.2158590308370046E-3</v>
       </c>
       <c r="DP34" s="22">
         <f t="shared" si="75"/>
-        <v>0.36546878256468274</v>
+        <v>0.28309564216313854</v>
       </c>
       <c r="DQ34" s="22">
         <f t="shared" si="76"/>
-        <v>0.19348257943485256</v>
+        <v>0.194017554308866</v>
       </c>
       <c r="DR34" s="22">
         <f t="shared" si="77"/>
-        <v>2.1942951552867185E-2</v>
+        <v>1.6457213664650389E-2</v>
       </c>
       <c r="DS34" s="22">
         <f t="shared" si="78"/>
-        <v>1.8047475476665677E-3</v>
+        <v>4.8834345407448299E-3</v>
       </c>
       <c r="DT34" s="22">
         <f t="shared" si="198"/>
-        <v>1.6545725321426368</v>
+        <v>1.6220388812034767</v>
       </c>
       <c r="DU34" s="22">
         <f t="shared" si="80"/>
-        <v>0.78955733860592536</v>
+        <v>0.80586775580309666</v>
       </c>
       <c r="DV34" s="22">
         <f t="shared" si="81"/>
-        <v>2.0656294285843053E-2</v>
+        <v>1.1392259272798289E-2</v>
       </c>
       <c r="DW34" s="22">
         <f t="shared" si="82"/>
-        <v>0.14652661311677995</v>
+        <v>9.238826610174479E-2</v>
       </c>
       <c r="DX34" s="22">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1.3159089443646858E-4</v>
       </c>
       <c r="DZ34" s="22">
         <f t="shared" si="84"/>
-        <v>0.18332164172456794</v>
+        <v>0.25484923392125419</v>
       </c>
       <c r="EA34" s="22">
         <f t="shared" si="85"/>
-        <v>5.0748898678414098E-3</v>
+        <v>5.2158590308370046E-3</v>
       </c>
       <c r="EB34" s="22">
         <f t="shared" si="86"/>
-        <v>0.36546878256468274</v>
+        <v>0.28309564216313854</v>
       </c>
       <c r="EC34" s="22">
         <f t="shared" si="87"/>
-        <v>0.19348257943485256</v>
+        <v>0.194017554308866</v>
       </c>
       <c r="ED34" s="22">
         <f t="shared" si="88"/>
-        <v>4.388590310573437E-2</v>
+        <v>3.2914427329300777E-2</v>
       </c>
       <c r="EE34" s="22">
         <f t="shared" si="89"/>
-        <v>3.6094950953331354E-3</v>
+        <v>9.7668690814896597E-3</v>
       </c>
       <c r="EG34" s="22">
         <f t="shared" si="199"/>
-        <v>1.5791146772118507</v>
+        <v>1.6117355116061933</v>
       </c>
       <c r="EH34" s="22">
         <f t="shared" si="200"/>
-        <v>4.1312588571686105E-2</v>
+        <v>2.2784518545596578E-2</v>
       </c>
       <c r="EI34" s="22">
         <f t="shared" si="201"/>
-        <v>0.21978991967516992</v>
+        <v>0.13858239915261719</v>
       </c>
       <c r="EJ34" s="22">
         <f t="shared" si="202"/>
-        <v>0</v>
+        <v>1.9738634165470287E-4</v>
       </c>
       <c r="EL34" s="22">
         <f t="shared" si="203"/>
-        <v>0.18332164172456794</v>
+        <v>0.25484923392125419</v>
       </c>
       <c r="EM34" s="22">
         <f t="shared" si="204"/>
-        <v>5.0748898678414098E-3</v>
+        <v>5.2158590308370046E-3</v>
       </c>
       <c r="EN34" s="22">
         <f t="shared" si="205"/>
-        <v>0.36546878256468274</v>
+        <v>0.28309564216313854</v>
       </c>
       <c r="EO34" s="22">
         <f t="shared" si="206"/>
-        <v>0.19348257943485256</v>
+        <v>0.194017554308866</v>
       </c>
       <c r="EP34" s="22">
         <f t="shared" si="207"/>
-        <v>2.1942951552867185E-2</v>
+        <v>1.6457213664650389E-2</v>
       </c>
       <c r="EQ34" s="22">
         <f t="shared" si="208"/>
-        <v>1.8047475476665677E-3</v>
+        <v>4.8834345407448299E-3</v>
       </c>
       <c r="ER34" s="22">
         <f t="shared" si="209"/>
-        <v>2.6113127781511847</v>
+        <v>2.5318187532755525</v>
       </c>
       <c r="ES34" s="22">
         <f t="shared" si="210"/>
-        <v>8.8078303726924858</v>
+        <v>9.0843785599753701</v>
       </c>
       <c r="EU34" s="86">
         <f t="shared" si="211"/>
-        <v>6.9542871079555146</v>
+        <v>7.3208077629931188</v>
       </c>
       <c r="EV34" s="86">
         <f t="shared" si="212"/>
-        <v>0.18193713619812268</v>
+        <v>0.10349159588748938</v>
       </c>
       <c r="EW34" s="86">
         <f t="shared" si="213"/>
-        <v>1.2905815534177356</v>
+        <v>0.83928998376798969</v>
       </c>
       <c r="EX34" s="86">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>1.1954215001066374E-3</v>
       </c>
       <c r="EY34" s="86"/>
       <c r="EZ34" s="86">
         <f t="shared" si="215"/>
-        <v>1.6146659239534995</v>
+        <v>2.3151469166603893</v>
       </c>
       <c r="FA34" s="86">
         <f t="shared" si="216"/>
-        <v>4.4698769116042925E-2</v>
+        <v>4.7382837951589596E-2</v>
       </c>
       <c r="FB34" s="86">
         <f t="shared" si="217"/>
-        <v>3.2189870433441587</v>
+        <v>2.571747982089275</v>
       </c>
       <c r="FC34" s="86">
         <f t="shared" si="218"/>
-        <v>1.704161739733181</v>
+        <v>1.7625289106223192</v>
       </c>
       <c r="FD34" s="86">
         <f t="shared" si="219"/>
-        <v>0.38653959030772667</v>
+        <v>0.29900711794416734</v>
       </c>
       <c r="FE34" s="86">
         <f t="shared" si="220"/>
-        <v>3.1791820530759747E-2</v>
+        <v>8.8725936081971005E-2</v>
       </c>
       <c r="FF34" s="22">
         <f t="shared" si="221"/>
-        <v>15.009319273718253</v>
+        <v>14.961591411472277</v>
       </c>
       <c r="FG34" s="22">
         <f t="shared" si="222"/>
-        <v>15.42765068455674</v>
+        <v>15.349324465498416</v>
       </c>
       <c r="FH34" s="22">
         <f t="shared" si="223"/>
-        <v>13.305157533985073</v>
+        <v>13.199062500849958</v>
       </c>
       <c r="FI34" s="22" t="str">
         <f t="shared" si="224"/>
@@ -36968,11 +37029,11 @@
       </c>
       <c r="FJ34" s="22">
         <f t="shared" si="225"/>
-        <v>458.41235271315861</v>
+        <v>369.21706183699536</v>
       </c>
       <c r="FK34" s="22">
         <f t="shared" si="158"/>
-        <v>0.66595327904638391</v>
+        <v>0.5262539987809578</v>
       </c>
       <c r="FL34" s="22">
         <f t="shared" si="226"/>
@@ -36981,27 +37042,27 @@
       <c r="FM34" s="87"/>
       <c r="FN34" s="87">
         <f t="shared" si="118"/>
-        <v>-14.65423453380768</v>
+        <v>-16.186312199924437</v>
       </c>
       <c r="FO34" s="22">
         <f t="shared" si="119"/>
-        <v>8.1603980425094341E-2</v>
+        <v>0.11017516438820513</v>
       </c>
       <c r="FP34" s="88">
         <f t="shared" si="227"/>
-        <v>0.11327567458794087</v>
+        <v>0.20901513779379516</v>
       </c>
       <c r="FQ34" s="88">
         <f t="shared" si="228"/>
-        <v>1.5013902493655586</v>
+        <v>2.1061317788665943</v>
       </c>
       <c r="FR34" s="87">
         <f t="shared" si="229"/>
-        <v>6.9542871079555146</v>
+        <v>7.3208077629931188</v>
       </c>
       <c r="FS34" s="87">
         <f t="shared" si="230"/>
-        <v>1.0457128920444854</v>
+        <v>0.67919223700688125</v>
       </c>
       <c r="FT34" s="87">
         <f t="shared" si="231"/>
@@ -37013,35 +37074,35 @@
       </c>
       <c r="FV34" s="87">
         <f t="shared" si="233"/>
-        <v>0.24486866137325025</v>
+        <v>0.16009774676110844</v>
       </c>
       <c r="FW34" s="87">
         <f t="shared" si="234"/>
-        <v>0</v>
+        <v>1.1954215001066374E-3</v>
       </c>
       <c r="FX34" s="87">
         <f t="shared" si="235"/>
-        <v>0.11327567458794087</v>
+        <v>0.20901513779379516</v>
       </c>
       <c r="FY34" s="87">
         <f t="shared" si="236"/>
-        <v>0.18193713619812268</v>
+        <v>0.10349159588748938</v>
       </c>
       <c r="FZ34" s="87">
         <f t="shared" si="237"/>
-        <v>0.54008147215931379</v>
+        <v>0.47379990194249955</v>
       </c>
       <c r="GA34" s="87">
         <f t="shared" si="238"/>
-        <v>3.2189870433441587</v>
+        <v>2.571747982089275</v>
       </c>
       <c r="GB34" s="87">
         <f t="shared" si="239"/>
-        <v>3.7590685155034724</v>
+        <v>3.0455478840317745</v>
       </c>
       <c r="GC34" s="87">
         <f t="shared" si="240"/>
-        <v>1.2409314844965276</v>
+        <v>1.9544521159682255</v>
       </c>
       <c r="GD34" s="87">
         <f t="shared" si="241"/>
@@ -37061,31 +37122,31 @@
       </c>
       <c r="GH34" s="86">
         <f t="shared" si="245"/>
-        <v>0.26045876486903108</v>
+        <v>0.15167966289836876</v>
       </c>
       <c r="GI34" s="86">
         <f t="shared" si="246"/>
-        <v>4.4698769116042925E-2</v>
+        <v>4.7382837951589596E-2</v>
       </c>
       <c r="GJ34" s="89">
         <f t="shared" si="247"/>
-        <v>0.305157533985074</v>
+        <v>0.19906250084995836</v>
       </c>
       <c r="GK34" s="89">
         <f t="shared" si="248"/>
-        <v>0.305157533985074</v>
+        <v>0.19906250084995836</v>
       </c>
       <c r="GL34" s="87">
         <f t="shared" si="249"/>
-        <v>1.6948424660149259</v>
+        <v>1.7625289106223192</v>
       </c>
       <c r="GM34" s="87">
         <f t="shared" si="250"/>
-        <v>0</v>
+        <v>3.8408588527722332E-2</v>
       </c>
       <c r="GN34" s="89">
         <f t="shared" si="251"/>
-        <v>2</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="GO34" s="87"/>
       <c r="GP34" s="86" t="str">
@@ -37095,15 +37156,15 @@
       <c r="GQ34" s="87"/>
       <c r="GR34" s="87">
         <f t="shared" si="253"/>
-        <v>0.38653959030772667</v>
+        <v>0.26059852941644501</v>
       </c>
       <c r="GS34" s="87">
         <f t="shared" si="254"/>
-        <v>3.1791820530759747E-2</v>
+        <v>8.8725936081971005E-2</v>
       </c>
       <c r="GT34" s="87">
         <f t="shared" si="255"/>
-        <v>0.41833141083848641</v>
+        <v>0.349324465498416</v>
       </c>
       <c r="GU34" s="86">
         <f t="shared" si="256"/>
@@ -37111,13 +37172,13 @@
       </c>
       <c r="GV34" s="86">
         <f t="shared" si="257"/>
-        <v>0.38653959030772667</v>
+        <v>0.29900711794416734</v>
       </c>
       <c r="GW34" s="142" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:205" s="22" customFormat="1" ht="18" customHeight="1">
+    <row r="35" spans="1:205" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A35" s="97" t="s">
         <v>165</v>
       </c>
@@ -37126,11 +37187,11 @@
       </c>
       <c r="C35" s="36">
         <f t="shared" si="0"/>
-        <v>992.88136149048262</v>
+        <v>864.05662045420127</v>
       </c>
       <c r="D35" s="36">
         <f t="shared" si="161"/>
-        <v>7.3358935393636422</v>
+        <v>3.2071756049974418</v>
       </c>
       <c r="F35" s="96">
         <v>55.080794381375242</v>
@@ -37168,71 +37229,73 @@
       <c r="Q35" s="95">
         <v>5</v>
       </c>
-      <c r="S35" s="99">
-        <v>41.03</v>
-      </c>
-      <c r="T35" s="99">
-        <v>2.02</v>
-      </c>
-      <c r="U35" s="99">
-        <v>14.4</v>
-      </c>
-      <c r="V35" s="99">
-        <v>6.6995100000000001</v>
-      </c>
-      <c r="W35" s="99">
-        <v>0.16</v>
-      </c>
-      <c r="X35" s="99">
-        <v>15.08</v>
-      </c>
-      <c r="Y35" s="99">
-        <v>11.4</v>
-      </c>
-      <c r="Z35" s="98">
-        <v>2.4</v>
-      </c>
-      <c r="AA35" s="98">
-        <v>0.21</v>
-      </c>
-      <c r="AB35" s="98"/>
+      <c r="S35" s="144">
+        <v>44.14</v>
+      </c>
+      <c r="T35" s="145">
+        <v>1.41</v>
+      </c>
+      <c r="U35" s="145">
+        <v>9.6</v>
+      </c>
+      <c r="V35" s="145">
+        <v>19.18</v>
+      </c>
+      <c r="W35" s="145">
+        <v>0.35</v>
+      </c>
+      <c r="X35" s="146">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="Y35" s="145">
+        <v>10.42</v>
+      </c>
+      <c r="Z35" s="145">
+        <v>1.57</v>
+      </c>
+      <c r="AA35" s="145">
+        <v>1.02</v>
+      </c>
+      <c r="AB35" s="145">
+        <v>0</v>
+      </c>
       <c r="AD35" s="35">
         <f t="shared" si="1"/>
-        <v>10.869414069237852</v>
+        <v>8.8889586684577004</v>
       </c>
       <c r="AE35" s="36"/>
       <c r="AF35" s="143">
         <f t="shared" si="151"/>
-        <v>0.26947423514580204</v>
+        <v>1.1587518480324457</v>
       </c>
       <c r="AG35" s="35">
         <f t="shared" si="2"/>
-        <v>50.118353688796255</v>
+        <v>68.398915624742628</v>
       </c>
       <c r="AH35" s="35">
         <f t="shared" si="3"/>
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="AI35" s="35">
         <f t="shared" si="4"/>
-        <v>7.3358935393636422</v>
+        <v>3.2071756049974418</v>
       </c>
       <c r="AJ35" s="35">
         <f t="shared" si="5"/>
-        <v>6.0692924152612484</v>
+        <v>3.5953508329971928</v>
       </c>
       <c r="AK35" s="36"/>
       <c r="AL35" s="37">
         <f t="shared" si="162"/>
-        <v>1003.81573518946</v>
+        <v>791.56115992271941</v>
       </c>
       <c r="AM35" s="37">
         <f t="shared" si="6"/>
-        <v>1001.2201541028243</v>
+        <v>790.71575191409158</v>
       </c>
       <c r="AN35" s="37">
         <f t="shared" si="163"/>
-        <v>963.87311266727193</v>
+        <v>869.55845858326984</v>
       </c>
       <c r="AO35" s="37">
         <f t="shared" si="164"/>
@@ -37240,29 +37303,29 @@
       </c>
       <c r="AP35" s="37">
         <f t="shared" si="8"/>
-        <v>978.59505475189258</v>
+        <v>938.07297338573869</v>
       </c>
       <c r="AQ35" s="37">
         <f t="shared" si="9"/>
-        <v>1029.0290354502433</v>
+        <v>891.07974324857992</v>
       </c>
       <c r="AR35" s="37">
         <f t="shared" si="10"/>
-        <v>978.19586367205727</v>
+        <v>801.9412137871218</v>
       </c>
       <c r="AS35" s="37">
         <f t="shared" si="11"/>
-        <v>1017.1549018846623</v>
+        <v>858.35662858663977</v>
       </c>
       <c r="AT35"/>
       <c r="AU35" s="35">
         <f t="shared" si="154"/>
-        <v>7.7804648542167616</v>
+        <v>3.9825184911581619</v>
       </c>
       <c r="AV35"/>
       <c r="AW35" s="37">
         <f t="shared" si="165"/>
-        <v>950.28982523948389</v>
+        <v>987.12382841608667</v>
       </c>
       <c r="AX35" s="37">
         <f t="shared" si="166"/>
@@ -37271,73 +37334,73 @@
       <c r="AY35" s="38"/>
       <c r="AZ35" s="50">
         <f t="shared" si="14"/>
-        <v>9.2322764916691266E-2</v>
+        <v>2.0971662584712223</v>
       </c>
       <c r="BA35" s="38"/>
       <c r="BB35" s="35">
         <f t="shared" si="167"/>
-        <v>7.7237805873851819</v>
+        <v>2.3071613725405342</v>
       </c>
       <c r="BC35" s="35">
         <f t="shared" si="168"/>
-        <v>7.0621038745203224</v>
+        <v>1.8891946990134227</v>
       </c>
       <c r="BD35" s="35">
         <f t="shared" si="169"/>
-        <v>5.5693154874410844</v>
+        <v>2.1319520002626366</v>
       </c>
       <c r="BE35" s="35">
         <f t="shared" si="170"/>
-        <v>9.5008204800087253</v>
+        <v>-1.1202662411693121</v>
       </c>
       <c r="BF35" s="35">
         <f t="shared" si="171"/>
-        <v>16.385228413558419</v>
+        <v>4.0921799158675123</v>
       </c>
       <c r="BG35" s="35">
         <f t="shared" si="172"/>
-        <v>4.5919376486799797</v>
+        <v>1.6274823228141519</v>
       </c>
       <c r="BH35" s="36"/>
       <c r="BI35" s="50">
         <f t="shared" si="173"/>
-        <v>0.19950278839937785</v>
+        <v>0.51729836648206684</v>
       </c>
       <c r="BJ35" s="50" t="str">
         <f t="shared" si="21"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="BK35" s="35">
         <f t="shared" si="174"/>
-        <v>8.8752237239549228</v>
+        <v>4.6907641279787864</v>
       </c>
       <c r="BL35" s="35">
         <f t="shared" si="175"/>
-        <v>8.2950368112760184</v>
+        <v>3.7418456905103779</v>
       </c>
       <c r="BM35" s="35">
         <f t="shared" si="176"/>
-        <v>11.220290485111628</v>
+        <v>3.27563264956874</v>
       </c>
       <c r="BN35" s="35">
         <f t="shared" si="177"/>
-        <v>9.5869307759653601</v>
+        <v>4.8950118651690548</v>
       </c>
       <c r="BO35" s="35">
         <f t="shared" si="178"/>
-        <v>7.3001980819740213</v>
+        <v>3.7812588988767928</v>
       </c>
       <c r="BP35" s="35">
         <f t="shared" si="27"/>
-        <v>-2.2371286620206554</v>
+        <v>0.89442857134551179</v>
       </c>
       <c r="BQ35" s="35">
         <f t="shared" si="179"/>
-        <v>9.2652237239549233</v>
+        <v>5.080764127978787</v>
       </c>
       <c r="BR35" s="35">
         <f t="shared" si="180"/>
-        <v>9.0984025697863675</v>
+        <v>5.1385561131568629</v>
       </c>
       <c r="BS35" s="23"/>
       <c r="BT35" s="23">
@@ -37506,15 +37569,15 @@
       </c>
       <c r="DJ35" s="22">
         <f t="shared" si="69"/>
-        <v>0.68287389551014166</v>
+        <v>0.73463450518687912</v>
       </c>
       <c r="DK35" s="22">
         <f t="shared" si="70"/>
-        <v>2.5288311792365434E-2</v>
+        <v>1.7651742389720424E-2</v>
       </c>
       <c r="DL35" s="22">
         <f t="shared" si="71"/>
-        <v>0.14123047047400478</v>
+        <v>9.4153646982669842E-2</v>
       </c>
       <c r="DM35" s="22">
         <f t="shared" si="72"/>
@@ -37522,43 +37585,43 @@
       </c>
       <c r="DN35" s="22">
         <f t="shared" si="73"/>
-        <v>9.3247678380545165E-2</v>
+        <v>0.26695840014252625</v>
       </c>
       <c r="DO35" s="22">
         <f t="shared" si="74"/>
-        <v>2.2555066079295153E-3</v>
+        <v>4.933920704845815E-3</v>
       </c>
       <c r="DP35" s="22">
         <f t="shared" si="75"/>
-        <v>0.37415269796846001</v>
+        <v>0.24910431615406753</v>
       </c>
       <c r="DQ35" s="22">
         <f t="shared" si="76"/>
-        <v>0.20329045212509855</v>
+        <v>0.18581460624066024</v>
       </c>
       <c r="DR35" s="22">
         <f t="shared" si="77"/>
-        <v>3.8722855681530326E-2</v>
+        <v>2.5331201425001088E-2</v>
       </c>
       <c r="DS35" s="22">
         <f t="shared" si="78"/>
-        <v>2.229394029470466E-3</v>
+        <v>1.0828485285999405E-2</v>
       </c>
       <c r="DT35" s="22">
         <f t="shared" si="198"/>
-        <v>1.5632912625695456</v>
+        <v>1.5894108245123697</v>
       </c>
       <c r="DU35" s="22">
         <f t="shared" si="80"/>
-        <v>0.68287389551014166</v>
+        <v>0.73463450518687912</v>
       </c>
       <c r="DV35" s="22">
         <f t="shared" si="81"/>
-        <v>2.5288311792365434E-2</v>
+        <v>1.7651742389720424E-2</v>
       </c>
       <c r="DW35" s="22">
         <f t="shared" si="82"/>
-        <v>0.28246094094800955</v>
+        <v>0.18830729396533968</v>
       </c>
       <c r="DX35" s="22">
         <f t="shared" si="83"/>
@@ -37566,39 +37629,39 @@
       </c>
       <c r="DZ35" s="22">
         <f t="shared" si="84"/>
-        <v>9.3247678380545165E-2</v>
+        <v>0.26695840014252625</v>
       </c>
       <c r="EA35" s="22">
         <f t="shared" si="85"/>
-        <v>2.2555066079295153E-3</v>
+        <v>4.933920704845815E-3</v>
       </c>
       <c r="EB35" s="22">
         <f t="shared" si="86"/>
-        <v>0.37415269796846001</v>
+        <v>0.24910431615406753</v>
       </c>
       <c r="EC35" s="22">
         <f t="shared" si="87"/>
-        <v>0.20329045212509855</v>
+        <v>0.18581460624066024</v>
       </c>
       <c r="ED35" s="22">
         <f t="shared" si="88"/>
-        <v>7.7445711363060651E-2</v>
+        <v>5.0662402850002175E-2</v>
       </c>
       <c r="EE35" s="22">
         <f t="shared" si="89"/>
-        <v>4.458788058940932E-3</v>
+        <v>2.1656970571998811E-2</v>
       </c>
       <c r="EG35" s="22">
         <f t="shared" si="199"/>
-        <v>1.3657477910202833</v>
+        <v>1.4692690103737582</v>
       </c>
       <c r="EH35" s="22">
         <f t="shared" si="200"/>
-        <v>5.0576623584730869E-2</v>
+        <v>3.5303484779440848E-2</v>
       </c>
       <c r="EI35" s="22">
         <f t="shared" si="201"/>
-        <v>0.42369141142201433</v>
+        <v>0.28246094094800955</v>
       </c>
       <c r="EJ35" s="22">
         <f t="shared" si="202"/>
@@ -37606,47 +37669,47 @@
       </c>
       <c r="EL35" s="22">
         <f t="shared" si="203"/>
-        <v>9.3247678380545165E-2</v>
+        <v>0.26695840014252625</v>
       </c>
       <c r="EM35" s="22">
         <f t="shared" si="204"/>
-        <v>2.2555066079295153E-3</v>
+        <v>4.933920704845815E-3</v>
       </c>
       <c r="EN35" s="22">
         <f t="shared" si="205"/>
-        <v>0.37415269796846001</v>
+        <v>0.24910431615406753</v>
       </c>
       <c r="EO35" s="22">
         <f t="shared" si="206"/>
-        <v>0.20329045212509855</v>
+        <v>0.18581460624066024</v>
       </c>
       <c r="EP35" s="22">
         <f t="shared" si="207"/>
-        <v>3.8722855681530326E-2</v>
+        <v>2.5331201425001088E-2</v>
       </c>
       <c r="EQ35" s="22">
         <f t="shared" si="208"/>
-        <v>2.229394029470466E-3</v>
+        <v>1.0828485285999405E-2</v>
       </c>
       <c r="ER35" s="22">
         <f t="shared" si="209"/>
-        <v>2.5539144108200631</v>
+        <v>2.5300043660543086</v>
       </c>
       <c r="ES35" s="22">
         <f t="shared" si="210"/>
-        <v>9.0057833976568897</v>
+        <v>9.0908934026346611</v>
       </c>
       <c r="EU35" s="86">
         <f t="shared" si="211"/>
-        <v>6.1498143908785199</v>
+        <v>6.6784839765511776</v>
       </c>
       <c r="EV35" s="86">
         <f t="shared" si="212"/>
-        <v>0.22774105849445558</v>
+        <v>0.16047010843571599</v>
       </c>
       <c r="EW35" s="86">
         <f t="shared" si="213"/>
-        <v>2.5437820524761277</v>
+        <v>1.7118815363774922</v>
       </c>
       <c r="EX35" s="86">
         <f t="shared" si="214"/>
@@ -37655,39 +37718,39 @@
       <c r="EY35" s="86"/>
       <c r="EZ35" s="86">
         <f t="shared" si="215"/>
-        <v>0.83976839382956292</v>
+        <v>2.4268903586335959</v>
       </c>
       <c r="FA35" s="86">
         <f t="shared" si="216"/>
-        <v>2.0312603962997038E-2</v>
+        <v>4.4853747184805379E-2</v>
       </c>
       <c r="FB35" s="86">
         <f t="shared" si="217"/>
-        <v>3.36953815555289</v>
+        <v>2.2645807842928312</v>
       </c>
       <c r="FC35" s="86">
         <f t="shared" si="218"/>
-        <v>1.8307897786503753</v>
+        <v>1.6892207779863755</v>
       </c>
       <c r="FD35" s="86">
         <f t="shared" si="219"/>
-        <v>0.69745930161317915</v>
+        <v>0.46056650383070424</v>
       </c>
       <c r="FE35" s="86">
         <f t="shared" si="220"/>
-        <v>4.0154879474881035E-2</v>
+        <v>0.19688121089403698</v>
       </c>
       <c r="FF35" s="22">
         <f t="shared" si="221"/>
-        <v>14.981746433844927</v>
+        <v>14.97638128946199</v>
       </c>
       <c r="FG35" s="22">
         <f t="shared" si="222"/>
-        <v>15.719360614932988</v>
+        <v>15.633829004186731</v>
       </c>
       <c r="FH35" s="22">
         <f t="shared" si="223"/>
-        <v>13.150956655194552</v>
+        <v>13.287160511475616</v>
       </c>
       <c r="FI35" s="22" t="str">
         <f t="shared" si="224"/>
@@ -37695,11 +37758,11 @@
       </c>
       <c r="FJ35" s="22">
         <f t="shared" si="225"/>
-        <v>51.931807689366991</v>
+        <v>34.544271986901016</v>
       </c>
       <c r="FK35" s="22">
         <f t="shared" si="158"/>
-        <v>0.80049721160062215</v>
+        <v>0.48270163351793316</v>
       </c>
       <c r="FL35" s="22">
         <f t="shared" si="226"/>
@@ -37708,27 +37771,27 @@
       <c r="FM35" s="87"/>
       <c r="FN35" s="87">
         <f t="shared" si="118"/>
-        <v>-10.653384523877833</v>
+        <v>-14.632633639801192</v>
       </c>
       <c r="FO35" s="22">
         <f t="shared" si="119"/>
-        <v>7.7870460708415606E-2</v>
+        <v>7.3198418393430664E-2</v>
       </c>
       <c r="FP35" s="88">
         <f t="shared" si="227"/>
-        <v>5.6581151107558188E-2</v>
+        <v>0.15495902480344398</v>
       </c>
       <c r="FQ35" s="88">
         <f t="shared" si="228"/>
-        <v>0.78318724272200468</v>
+        <v>2.2719313338301519</v>
       </c>
       <c r="FR35" s="87">
         <f t="shared" si="229"/>
-        <v>6.1498143908785199</v>
+        <v>6.6784839765511776</v>
       </c>
       <c r="FS35" s="87">
         <f t="shared" si="230"/>
-        <v>1.8501856091214801</v>
+        <v>1.3215160234488224</v>
       </c>
       <c r="FT35" s="87">
         <f t="shared" si="231"/>
@@ -37740,7 +37803,7 @@
       </c>
       <c r="FV35" s="87">
         <f t="shared" si="233"/>
-        <v>0.69359644335464754</v>
+        <v>0.39036551292866983</v>
       </c>
       <c r="FW35" s="87">
         <f t="shared" si="234"/>
@@ -37748,27 +37811,27 @@
       </c>
       <c r="FX35" s="87">
         <f t="shared" si="235"/>
-        <v>5.6581151107558188E-2</v>
+        <v>0.15495902480344398</v>
       </c>
       <c r="FY35" s="87">
         <f t="shared" si="236"/>
-        <v>0.22774105849445558</v>
+        <v>0.16047010843571599</v>
       </c>
       <c r="FZ35" s="87">
         <f t="shared" si="237"/>
-        <v>0.97791865295666136</v>
+        <v>0.70579464616782983</v>
       </c>
       <c r="GA35" s="87">
         <f t="shared" si="238"/>
-        <v>3.36953815555289</v>
+        <v>2.2645807842928312</v>
       </c>
       <c r="GB35" s="87">
         <f t="shared" si="239"/>
-        <v>4.3474568085095511</v>
+        <v>2.9703754304606611</v>
       </c>
       <c r="GC35" s="87">
         <f t="shared" si="240"/>
-        <v>0.65254319149044893</v>
+        <v>2.0296245695393389</v>
       </c>
       <c r="GD35" s="87">
         <f t="shared" si="241"/>
@@ -37788,27 +37851,27 @@
       </c>
       <c r="GH35" s="86">
         <f t="shared" si="245"/>
-        <v>0.13064405123155576</v>
+        <v>0.24230676429081299</v>
       </c>
       <c r="GI35" s="86">
         <f t="shared" si="246"/>
-        <v>2.0312603962997038E-2</v>
+        <v>4.4853747184805379E-2</v>
       </c>
       <c r="GJ35" s="89">
         <f t="shared" si="247"/>
-        <v>0.15095665519455279</v>
+        <v>0.28716051147561839</v>
       </c>
       <c r="GK35" s="89">
         <f t="shared" si="248"/>
-        <v>0.15095665519455279</v>
+        <v>0.28716051147561839</v>
       </c>
       <c r="GL35" s="87">
         <f t="shared" si="249"/>
-        <v>1.8307897786503753</v>
+        <v>1.6892207779863755</v>
       </c>
       <c r="GM35" s="87">
         <f t="shared" si="250"/>
-        <v>1.825356615507201E-2</v>
+        <v>2.3618710538006127E-2</v>
       </c>
       <c r="GN35" s="89">
         <f t="shared" si="251"/>
@@ -37822,15 +37885,15 @@
       <c r="GQ35" s="87"/>
       <c r="GR35" s="87">
         <f t="shared" si="253"/>
-        <v>0.67920573545810714</v>
+        <v>0.43694779329269812</v>
       </c>
       <c r="GS35" s="87">
         <f t="shared" si="254"/>
-        <v>4.0154879474881035E-2</v>
+        <v>0.19688121089403698</v>
       </c>
       <c r="GT35" s="87">
         <f t="shared" si="255"/>
-        <v>0.7193606149329882</v>
+        <v>0.63382900418673516</v>
       </c>
       <c r="GU35" s="86">
         <f t="shared" si="256"/>
@@ -37838,13 +37901,13 @@
       </c>
       <c r="GV35" s="86">
         <f t="shared" si="257"/>
-        <v>0.69745930161317915</v>
+        <v>0.46056650383070424</v>
       </c>
       <c r="GW35" s="142" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:205" s="22" customFormat="1" ht="18" customHeight="1">
+    <row r="36" spans="1:205" s="22" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A36" s="97" t="s">
         <v>165</v>
       </c>
@@ -37853,11 +37916,11 @@
       </c>
       <c r="C36" s="36">
         <f t="shared" si="0"/>
-        <v>786.71473777603148</v>
+        <v>839.88808243490871</v>
       </c>
       <c r="D36" s="36">
         <f>AI36</f>
-        <v>-0.55037607793421728</v>
+        <v>4.5854724144493488</v>
       </c>
       <c r="F36" s="96">
         <v>67.547133992151373</v>
@@ -37895,71 +37958,73 @@
       <c r="Q36" s="95">
         <v>5</v>
       </c>
-      <c r="S36" s="99">
-        <v>51.97</v>
-      </c>
-      <c r="T36" s="99">
-        <v>0.26</v>
-      </c>
-      <c r="U36" s="99">
-        <v>3.14</v>
-      </c>
-      <c r="V36" s="99">
-        <v>15.180999999999999</v>
-      </c>
-      <c r="W36" s="98">
-        <v>0.43</v>
-      </c>
-      <c r="X36" s="99">
-        <v>27.43</v>
-      </c>
-      <c r="Y36" s="99">
+      <c r="S36" s="144">
+        <v>43.22</v>
+      </c>
+      <c r="T36" s="145">
+        <v>1.22</v>
+      </c>
+      <c r="U36" s="145">
+        <v>13.13</v>
+      </c>
+      <c r="V36" s="145">
+        <v>18.93</v>
+      </c>
+      <c r="W36" s="145">
+        <v>0.31</v>
+      </c>
+      <c r="X36" s="146">
+        <v>7.74</v>
+      </c>
+      <c r="Y36" s="145">
+        <v>10.3</v>
+      </c>
+      <c r="Z36" s="145">
         <v>1.53</v>
       </c>
-      <c r="Z36" s="98">
-        <v>0.01</v>
-      </c>
-      <c r="AA36" s="98">
-        <v>0.01</v>
-      </c>
-      <c r="AB36" s="98"/>
+      <c r="AA36" s="145">
+        <v>0.89</v>
+      </c>
+      <c r="AB36" s="145">
+        <v>0</v>
+      </c>
       <c r="AD36" s="35">
         <f t="shared" si="1"/>
-        <v>3.2491850943560698</v>
+        <v>9.305399517569704</v>
       </c>
       <c r="AE36" s="36"/>
       <c r="AF36" s="143">
         <f t="shared" si="151"/>
-        <v>0.26970659056129564</v>
+        <v>1.1918638283088945</v>
       </c>
       <c r="AG36" s="35">
         <f t="shared" si="2"/>
-        <v>70.611503670573256</v>
+        <v>63.258429461137496</v>
       </c>
       <c r="AH36" s="35">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="AI36" s="35">
         <f t="shared" si="4"/>
-        <v>-0.55037607793421728</v>
+        <v>4.5854724144493488</v>
       </c>
       <c r="AJ36" s="35">
         <f t="shared" si="5"/>
-        <v>-3.8481459523559458</v>
+        <v>5.2244841905513795</v>
       </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37">
         <f>1781-132.74*EU36+116.6*EV36-69.41*EZ36+101.62*FD36</f>
-        <v>703.2046360051163</v>
+        <v>809.75166252155498</v>
       </c>
       <c r="AM36" s="37">
         <f t="shared" si="6"/>
-        <v>708.79635918892313</v>
+        <v>807.44263216739546</v>
       </c>
       <c r="AN36" s="37">
         <f>2061-178.4*EU36</f>
-        <v>772.43632721179938</v>
+        <v>895.86865958064755</v>
       </c>
       <c r="AO36" s="37">
         <f>(24429.2)/(2.31+42.1*CM36+32.2*CP36+2.21*LN(CI36)-1.4*LN(CJ36)-2.666*LN((CM36+CO36)*CK36))</f>
@@ -37967,29 +38032,29 @@
       </c>
       <c r="AP36" s="37">
         <f t="shared" si="8"/>
-        <v>603.21040166281875</v>
+        <v>897.81870583371824</v>
       </c>
       <c r="AQ36" s="37">
         <f t="shared" si="9"/>
-        <v>779.04271730500454</v>
+        <v>805.47302691673372</v>
       </c>
       <c r="AR36" s="37">
         <f t="shared" si="10"/>
-        <v>916.24736314792324</v>
+        <v>774.15598449640368</v>
       </c>
       <c r="AS36" s="37">
         <f t="shared" si="11"/>
-        <v>910.61611360755603</v>
+        <v>828.43000388370558</v>
       </c>
       <c r="AT36"/>
       <c r="AU36" s="35">
         <f t="shared" si="154"/>
-        <v>0.93346075203758316</v>
+        <v>6.7147336850738064</v>
       </c>
       <c r="AV36"/>
       <c r="AW36" s="37">
         <f>(71975-11896*LN(FL36))/(8.3144*LN(FJ36)+58)</f>
-        <v>882.66842201359952</v>
+        <v>963.05053194901143</v>
       </c>
       <c r="AX36" s="37">
         <f>107*LN(DD36)-108*LN(FL36)+1184</f>
@@ -37998,73 +38063,73 @@
       <c r="AY36" s="38"/>
       <c r="AZ36" s="50">
         <f t="shared" si="14"/>
-        <v>1.067398396982072</v>
+        <v>0.52559684532177608</v>
       </c>
       <c r="BA36" s="38"/>
       <c r="BB36" s="35">
         <f>10*(EXP(125.93-9.5876*EU36*13/FH36-10.116*EV36*13/FH36-8.1735*EW36*13/FH36-9.2261*EZ36*13/FH36-8.7934*FB36*13/FH36-1.6659*FC36+2.4835*FD36+2.5192*FE36))/1000</f>
-        <v>5.6182029030571972</v>
+        <v>3.4388505429800356</v>
       </c>
       <c r="BC36" s="35">
         <f>10*(EXP(38.723-2.6957*EU36*13/FH36-2.3565*EV36*13/FH36-1.3006*EW36*13/FH36-2.778*EZ36*13/FH36-2.4838*FB36*13/FH36-0.6614*FC36-0.2705*FD36+0.1117*FE36))/1000</f>
-        <v>1.7503298808152541</v>
+        <v>4.0859497602436319</v>
       </c>
       <c r="BD36" s="35">
         <f>10*(24023-1925.3*EU36*13/FH36-1720.6*EV36*13/FH36-1478.5*EW36*13/FH36-1843.2*EZ36*13/FH36-1746.9*FB36*13/FH36-158.28*FC36-40.444*FD36+253.52*FE36)/1000</f>
-        <v>2.2882347375097805</v>
+        <v>3.8946719651794917</v>
       </c>
       <c r="BE36" s="35">
         <f>10*(26106-1991.9*EU36*13/FH36-3035*EV36*13/FH36-1472.2*EW36*13/FH36-2454.8*EZ36*13/FH36-2125.8*FB36*13/FH36-830.64*FC36+2708.8*FD36+2204.1*FE36)/1000</f>
-        <v>-10.211918070573704</v>
+        <v>2.2997934237063355</v>
       </c>
       <c r="BF36" s="35">
         <f>10*EXP(26.543-1.2085*EU36*13/FH36-3.8593*EV36*13/FH36-1.1054*EW36*13/FH36-2.9068*EZ36*13/FH36-2.6483*FB36*13/FH36+0.5134*FC36+2.9752*FD36+1.8147*FE36)/1000</f>
-        <v>4.3695649503425013E-2</v>
+        <v>8.7534978844405646</v>
       </c>
       <c r="BG36" s="35">
         <f>10*(19.209*EXP(1.438*EW36*13/FF36))/1000</f>
-        <v>0.35733109778631017</v>
+        <v>3.6461171308702331</v>
       </c>
       <c r="BH36" s="36"/>
       <c r="BI36" s="50">
         <f>EZ36/(EZ36+FB36)</f>
-        <v>0.23691599047027814</v>
+        <v>0.57841651884930312</v>
       </c>
       <c r="BJ36" s="50" t="str">
         <f t="shared" si="21"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="BK36" s="35">
         <f>(-3.92+5.03*EW36)</f>
-        <v>-1.3329020900022526</v>
+        <v>7.8421008340835474</v>
       </c>
       <c r="BL36" s="35">
         <f>1.27*(EW36^2.01)</f>
-        <v>0.3337382081518066</v>
+        <v>7.0036867980052406</v>
       </c>
       <c r="BM36" s="35">
         <f>0.26*EXP(1.48*EW36)</f>
-        <v>0.55662698522775911</v>
+        <v>8.2791747640349946</v>
       </c>
       <c r="BN36" s="35">
         <f>(-4.76+5.64*EW36)</f>
-        <v>-1.859158605887218</v>
+        <v>8.4285186290718102</v>
       </c>
       <c r="BO36" s="35">
         <f>(-3.46+4.23*EW36)</f>
-        <v>-1.2843689544154131</v>
+        <v>6.4313889718038597</v>
       </c>
       <c r="BP36" s="35">
         <f t="shared" si="27"/>
-        <v>-1.6973388231844568</v>
+        <v>4.0232393467248313</v>
       </c>
       <c r="BQ36" s="35">
         <f>(5.03*EW36-3.53)</f>
-        <v>-0.94290209000225245</v>
+        <v>8.232100834083548</v>
       </c>
       <c r="BR36" s="35">
         <f>(-3.01+4.76*EW36)</f>
-        <v>-0.56177215674169423</v>
+        <v>8.1207355805641512</v>
       </c>
       <c r="BS36" s="23"/>
       <c r="BT36" s="23">
@@ -38233,15 +38298,15 @@
       </c>
       <c r="DJ36" s="22">
         <f t="shared" si="69"/>
-        <v>0.86495140993570696</v>
+        <v>0.71932268496096319</v>
       </c>
       <c r="DK36" s="22">
         <f t="shared" si="70"/>
-        <v>3.2549312207995115E-3</v>
+        <v>1.5273138805290014E-2</v>
       </c>
       <c r="DL36" s="22">
         <f t="shared" si="71"/>
-        <v>3.0796088700581595E-2</v>
+        <v>0.12877472759192241</v>
       </c>
       <c r="DM36" s="22">
         <f t="shared" si="72"/>
@@ -38249,43 +38314,43 @@
       </c>
       <c r="DN36" s="22">
         <f t="shared" si="73"/>
-        <v>0.21129799127026544</v>
+        <v>0.2634787546766435</v>
       </c>
       <c r="DO36" s="22">
         <f t="shared" si="74"/>
-        <v>6.0616740088105725E-3</v>
+        <v>4.3700440528634359E-3</v>
       </c>
       <c r="DP36" s="22">
         <f t="shared" si="75"/>
-        <v>0.68057085578745746</v>
+        <v>0.19203858635781701</v>
       </c>
       <c r="DQ36" s="22">
         <f t="shared" si="76"/>
-        <v>2.7283718574684278E-2</v>
+        <v>0.18367470674460659</v>
       </c>
       <c r="DR36" s="22">
         <f t="shared" si="77"/>
-        <v>1.6134523200637637E-4</v>
+        <v>2.4685820496975583E-2</v>
       </c>
       <c r="DS36" s="22">
         <f t="shared" si="78"/>
-        <v>1.0616162045097456E-4</v>
+        <v>9.4483842201367359E-3</v>
       </c>
       <c r="DT36" s="22">
         <f>SUM(DJ36:DS36)</f>
-        <v>1.8244841763507633</v>
+        <v>1.5410668479072185</v>
       </c>
       <c r="DU36" s="22">
         <f t="shared" si="80"/>
-        <v>0.86495140993570696</v>
+        <v>0.71932268496096319</v>
       </c>
       <c r="DV36" s="22">
         <f t="shared" si="81"/>
-        <v>3.2549312207995115E-3</v>
+        <v>1.5273138805290014E-2</v>
       </c>
       <c r="DW36" s="22">
         <f t="shared" si="82"/>
-        <v>6.1592177401163191E-2</v>
+        <v>0.25754945518384481</v>
       </c>
       <c r="DX36" s="22">
         <f t="shared" si="83"/>
@@ -38293,39 +38358,39 @@
       </c>
       <c r="DZ36" s="22">
         <f t="shared" si="84"/>
-        <v>0.21129799127026544</v>
+        <v>0.2634787546766435</v>
       </c>
       <c r="EA36" s="22">
         <f t="shared" si="85"/>
-        <v>6.0616740088105725E-3</v>
+        <v>4.3700440528634359E-3</v>
       </c>
       <c r="EB36" s="22">
         <f t="shared" si="86"/>
-        <v>0.68057085578745746</v>
+        <v>0.19203858635781701</v>
       </c>
       <c r="EC36" s="22">
         <f t="shared" si="87"/>
-        <v>2.7283718574684278E-2</v>
+        <v>0.18367470674460659</v>
       </c>
       <c r="ED36" s="22">
         <f t="shared" si="88"/>
-        <v>3.2269046401275274E-4</v>
+        <v>4.9371640993951166E-2</v>
       </c>
       <c r="EE36" s="22">
         <f t="shared" si="89"/>
-        <v>2.1232324090194913E-4</v>
+        <v>1.8896768440273472E-2</v>
       </c>
       <c r="EG36" s="22">
         <f>DJ36*2</f>
-        <v>1.7299028198714139</v>
+        <v>1.4386453699219264</v>
       </c>
       <c r="EH36" s="22">
         <f>DK36*2</f>
-        <v>6.5098624415990229E-3</v>
+        <v>3.0546277610580028E-2</v>
       </c>
       <c r="EI36" s="22">
         <f>DL36*3</f>
-        <v>9.238826610174479E-2</v>
+        <v>0.38632418277576719</v>
       </c>
       <c r="EJ36" s="22">
         <f>DM36*3</f>
@@ -38333,47 +38398,47 @@
       </c>
       <c r="EL36" s="22">
         <f t="shared" ref="EL36:EQ36" si="259">DN36</f>
-        <v>0.21129799127026544</v>
+        <v>0.2634787546766435</v>
       </c>
       <c r="EM36" s="22">
         <f t="shared" si="259"/>
-        <v>6.0616740088105725E-3</v>
+        <v>4.3700440528634359E-3</v>
       </c>
       <c r="EN36" s="22">
         <f t="shared" si="259"/>
-        <v>0.68057085578745746</v>
+        <v>0.19203858635781701</v>
       </c>
       <c r="EO36" s="22">
         <f t="shared" si="259"/>
-        <v>2.7283718574684278E-2</v>
+        <v>0.18367470674460659</v>
       </c>
       <c r="EP36" s="22">
         <f t="shared" si="259"/>
-        <v>1.6134523200637637E-4</v>
+        <v>2.4685820496975583E-2</v>
       </c>
       <c r="EQ36" s="22">
         <f t="shared" si="259"/>
-        <v>1.0616162045097456E-4</v>
+        <v>9.4483842201367359E-3</v>
       </c>
       <c r="ER36" s="22">
         <f>SUM(EG36:EQ36)</f>
-        <v>2.7542826949084329</v>
+        <v>2.5332121268573169</v>
       </c>
       <c r="ES36" s="22">
         <f>23/ER36</f>
-        <v>8.3506315609932855</v>
+        <v>9.0793817683691653</v>
       </c>
       <c r="EU36" s="86">
         <f>DU36*$ES36</f>
-        <v>7.2228905425347563</v>
+        <v>6.5310052714089259</v>
       </c>
       <c r="EV36" s="86">
         <f>DV36*$ES36</f>
-        <v>2.7180731381270806E-2</v>
+        <v>0.13867065801452177</v>
       </c>
       <c r="EW36" s="86">
         <f>DW36*$ES36</f>
-        <v>0.51433358051645073</v>
+        <v>2.3383898278496118</v>
       </c>
       <c r="EX36" s="86">
         <f>DX36*$ES36</f>
@@ -38382,39 +38447,39 @@
       <c r="EY36" s="86"/>
       <c r="EZ36" s="86">
         <f t="shared" ref="EZ36:FE36" si="260">DZ36*$ES36</f>
-        <v>1.7644716746759623</v>
+        <v>2.3922242015637289</v>
       </c>
       <c r="FA36" s="86">
         <f t="shared" si="260"/>
-        <v>5.0618806290426255E-2</v>
+        <v>3.9677298300538379E-2</v>
       </c>
       <c r="FB36" s="86">
         <f t="shared" si="260"/>
-        <v>5.6831964678309523</v>
+        <v>1.7435916398005513</v>
       </c>
       <c r="FC36" s="86">
         <f t="shared" si="260"/>
-        <v>0.22783628143101728</v>
+        <v>1.6676527837275341</v>
       </c>
       <c r="FD36" s="86">
         <f>ED36*$ES36</f>
-        <v>2.6946691732164609E-3</v>
+        <v>0.44826397711494792</v>
       </c>
       <c r="FE36" s="86">
         <f t="shared" si="260"/>
-        <v>1.7730331566081969E-3</v>
+        <v>0.17157097485771278</v>
       </c>
       <c r="FF36" s="22">
         <f>SUM(EU36:FC36)</f>
-        <v>15.490528084660834</v>
+        <v>14.851211680665411</v>
       </c>
       <c r="FG36" s="22">
         <f>SUM(EU36:FE36)</f>
-        <v>15.494995786990659</v>
+        <v>15.471046632638071</v>
       </c>
       <c r="FH36" s="22">
         <f>SUM(EU36:FB36)</f>
-        <v>15.262691803229817</v>
+        <v>13.183558896937877</v>
       </c>
       <c r="FI36" s="22" t="str">
         <f>IF(OR(FG36&gt;16,FG36&lt;15),"BAD","Good")</f>
@@ -38422,11 +38487,11 @@
       </c>
       <c r="FJ36" s="22">
         <f>(FB36*13/(EU36+EV36+EW36+EZ36+FA36+FB36))/(DD36)</f>
-        <v>227.21486015148938</v>
+        <v>80.702559837015571</v>
       </c>
       <c r="FK36" s="22">
         <f t="shared" si="158"/>
-        <v>0.76308400952972189</v>
+        <v>0.42158348115069677</v>
       </c>
       <c r="FL36" s="22">
         <f>DE36/(DE36+CZ36)</f>
@@ -38435,31 +38500,31 @@
       <c r="FM36" s="87"/>
       <c r="FN36" s="87">
         <f t="shared" si="118"/>
-        <v>-16.877488231066902</v>
+        <v>-14.250034624216536</v>
       </c>
       <c r="FO36" s="22">
         <f t="shared" si="119"/>
-        <v>7.8022800911545856E-2</v>
+        <v>9.0122052383960358E-2</v>
       </c>
       <c r="FP36" s="88">
         <f>(EZ36)*FO36/(1+2*FO36)</f>
-        <v>0.11908615193916185</v>
+        <v>0.18266742781138268</v>
       </c>
       <c r="FQ36" s="88">
         <f>(EZ36)-FP36</f>
-        <v>1.6453855227368004</v>
+        <v>2.2095567737523463</v>
       </c>
       <c r="FR36" s="87">
         <f>EU36</f>
-        <v>7.2228905425347563</v>
+        <v>6.5310052714089259</v>
       </c>
       <c r="FS36" s="87">
         <f>IF(EU36+EW36&gt;8,8-EU36,EW36)</f>
-        <v>0.51433358051645073</v>
+        <v>1.4689947285910741</v>
       </c>
       <c r="FT36" s="87">
         <f>IF(FS36+FR36=8,0,IF(8&lt;FS36+FR36+EV36,EV36,8-FR36-FS36))</f>
-        <v>0.26277587694879301</v>
+        <v>0</v>
       </c>
       <c r="FU36" s="86">
         <f>FS36+FR36+FT36</f>
@@ -38467,7 +38532,7 @@
       </c>
       <c r="FV36" s="87">
         <f>IF(EW36-FS36&lt;0,0,EW36-FS36)</f>
-        <v>0</v>
+        <v>0.86939509925853775</v>
       </c>
       <c r="FW36" s="87">
         <f>EX36</f>
@@ -38475,27 +38540,27 @@
       </c>
       <c r="FX36" s="87">
         <f>FP36</f>
-        <v>0.11908615193916185</v>
+        <v>0.18266742781138268</v>
       </c>
       <c r="FY36" s="87">
         <f>EV36-FT36</f>
-        <v>-0.2355951455675222</v>
+        <v>0.13867065801452177</v>
       </c>
       <c r="FZ36" s="87">
         <f>SUM(FV36:FY36)</f>
-        <v>-0.11650899362836035</v>
+        <v>1.1907331850844423</v>
       </c>
       <c r="GA36" s="87">
         <f>IF(FZ36&gt;5,0,IF(FZ36+FB36&lt;5,FB36,5-FZ36))</f>
-        <v>5.1165089936283605</v>
+        <v>1.7435916398005513</v>
       </c>
       <c r="GB36" s="87">
         <f>GA36+FZ36</f>
-        <v>5</v>
+        <v>2.9343248248849934</v>
       </c>
       <c r="GC36" s="87">
         <f>IF(GB36&gt;5,0,IF(GB36+FQ36&lt;5,FQ36,5-GB36))</f>
-        <v>0</v>
+        <v>2.0656751751150066</v>
       </c>
       <c r="GD36" s="87">
         <f>GC36+GB36</f>
@@ -38511,31 +38576,31 @@
       </c>
       <c r="GG36" s="86">
         <f>FB36-GA36</f>
-        <v>0.5666874742025918</v>
+        <v>0</v>
       </c>
       <c r="GH36" s="86">
         <f>FQ36-GC36</f>
-        <v>1.6453855227368004</v>
+        <v>0.14388159863733962</v>
       </c>
       <c r="GI36" s="86">
         <f>FA36-GE36</f>
-        <v>5.0618806290426255E-2</v>
+        <v>3.9677298300538379E-2</v>
       </c>
       <c r="GJ36" s="89">
         <f>SUM(GG36:GI36)</f>
-        <v>2.2626918032298189</v>
+        <v>0.183558896937878</v>
       </c>
       <c r="GK36" s="89">
         <f>GJ36</f>
-        <v>2.2626918032298189</v>
+        <v>0.183558896937878</v>
       </c>
       <c r="GL36" s="87">
         <f>IF(FC36&gt;2-GK36,2-GK36,FC36)</f>
-        <v>-0.26269180322981889</v>
+        <v>1.6676527837275341</v>
       </c>
       <c r="GM36" s="87">
         <f>IF(GL36+GK36+FD36&lt;2,FD36,2-GK36-GL36)</f>
-        <v>0</v>
+        <v>0.1487883193345878</v>
       </c>
       <c r="GN36" s="89">
         <f>GL36+GK36+GM36</f>
@@ -38544,20 +38609,20 @@
       <c r="GO36" s="87"/>
       <c r="GP36" s="86" t="str">
         <f>IF(GL36&lt;1,"Mg-Fe-Li grpup",IF(AND(GL36+GM36&gt;=1,GM36&lt;0.5),"CALCIC",IF(AND(GL36+GM36&gt;=1,GM36&gt;0.5),"SODIC-CALCIC")))</f>
-        <v>Mg-Fe-Li grpup</v>
+        <v>CALCIC</v>
       </c>
       <c r="GQ36" s="87"/>
       <c r="GR36" s="87">
         <f>IF(FD36-GM36&gt;0,FD36-GM36,0)</f>
-        <v>2.6946691732164609E-3</v>
+        <v>0.29947565778036012</v>
       </c>
       <c r="GS36" s="87">
         <f>FE36</f>
-        <v>1.7730331566081969E-3</v>
+        <v>0.17157097485771278</v>
       </c>
       <c r="GT36" s="87">
         <f>GS36+GR36</f>
-        <v>4.4677023298246576E-3</v>
+        <v>0.47104663263807289</v>
       </c>
       <c r="GU36" s="86">
         <f>IF(2-FC36-EZ36&lt;=0.1,0,2-FC36-EZ36)</f>
@@ -38565,7 +38630,7 @@
       </c>
       <c r="GV36" s="86">
         <f>FD36-GU36</f>
-        <v>2.6946691732164609E-3</v>
+        <v>0.44826397711494792</v>
       </c>
       <c r="GW36" s="142" t="s">
         <v>298</v>
@@ -46821,80 +46886,80 @@
       </c>
       <c r="D33" s="108">
         <f t="shared" si="0"/>
-        <v>4.8649488416883283E-2</v>
+        <v>3.2095548181866995E-2</v>
       </c>
       <c r="E33" s="108">
         <f t="shared" si="1"/>
-        <v>0.26180263957436273</v>
+        <v>0.23999809869732761</v>
       </c>
       <c r="F33" s="108">
         <f t="shared" si="2"/>
-        <v>5.2317058834634632E-2</v>
+        <v>2.0413327829378453E-2</v>
       </c>
       <c r="G33" s="108">
         <f t="shared" si="3"/>
-        <v>9.8589321538541698E-3</v>
+        <v>2.0152674071680605E-2</v>
       </c>
       <c r="H33" s="108">
         <f t="shared" si="4"/>
-        <v>5.0944790381700265E-2</v>
+        <v>2.3233682047533795E-2</v>
       </c>
       <c r="I33" s="108">
         <f t="shared" si="5"/>
-        <v>8.2699666763109317E-2</v>
+        <v>7.1990452042847097E-2</v>
       </c>
       <c r="J33" s="108">
         <f t="shared" si="6"/>
-        <v>0.49372742387545548</v>
+        <v>0.59211621712936557</v>
       </c>
       <c r="K33" s="108">
         <f t="shared" si="7"/>
-        <v>-1.627235105408534E-3</v>
+        <v>8.182333414504607E-4</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="20"/>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="N33" s="108">
         <f t="array" ref="N33:U33">MMULT(CQ33:CX33,$U$3:$AB$10)</f>
-        <v>1.0192461251857099E-2</v>
+        <v>7.6724538153413284E-3</v>
       </c>
       <c r="O33" s="108">
-        <v>5.4849770189352248E-2</v>
+        <v>5.7371642870561596E-2</v>
       </c>
       <c r="P33" s="108">
-        <v>1.0960846914026059E-2</v>
+        <v>4.8798143001281945E-3</v>
       </c>
       <c r="Q33" s="108">
-        <v>2.0655260154385062E-3</v>
+        <v>4.8175049135927191E-3</v>
       </c>
       <c r="R33" s="108">
-        <v>1.0673345575598306E-2</v>
+        <v>5.5540211203103573E-3</v>
       </c>
       <c r="S33" s="108">
-        <v>1.7326248979258788E-2</v>
+        <v>1.7209346770289666E-2</v>
       </c>
       <c r="T33" s="108">
-        <v>0.103439888076673</v>
+        <v>0.14154562195034645</v>
       </c>
       <c r="U33" s="108">
-        <v>-3.4091891403697177E-4</v>
+        <v>1.9559901226419522E-4</v>
       </c>
       <c r="V33" s="108">
         <f t="shared" si="21"/>
-        <v>0.20950808700220402</v>
+        <v>0.23905040574057029</v>
       </c>
       <c r="X33">
         <f t="shared" si="22"/>
-        <v>0.89086211970024698</v>
+        <v>0.90030577852746396</v>
       </c>
       <c r="Y33">
         <f t="shared" si="23"/>
-        <v>9.7512996497697929E-2</v>
+        <v>7.7890043159019984E-2</v>
       </c>
       <c r="Z33">
         <f t="shared" si="24"/>
-        <v>1.162488380205509E-2</v>
+        <v>2.1804178313516068E-2</v>
       </c>
       <c r="AA33">
         <f t="shared" si="25"/>
@@ -46902,121 +46967,121 @@
       </c>
       <c r="AB33" s="100">
         <f t="shared" si="26"/>
-        <v>0.11930993934728049</v>
+        <v>0.1025283229888706</v>
       </c>
       <c r="AC33" s="100">
         <f t="shared" si="27"/>
-        <v>1.162488380205509E-2</v>
+        <v>2.1804178313516068E-2</v>
       </c>
       <c r="AE33">
         <f t="shared" si="28"/>
-        <v>0.89919483646403264</v>
+        <v>0.93501126691870917</v>
       </c>
       <c r="AF33">
         <f t="shared" si="29"/>
-        <v>8.4460255253778913E-2</v>
+        <v>3.4801898480108846E-2</v>
       </c>
       <c r="AG33">
         <f t="shared" si="30"/>
-        <v>1.6344908282188535E-2</v>
+        <v>3.0186834601181826E-2</v>
       </c>
       <c r="AH33">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AI33" s="100">
         <f t="shared" si="32"/>
-        <v>0.1069630394097888</v>
+        <v>5.7614147994576773E-2</v>
       </c>
       <c r="AJ33" s="100">
         <f t="shared" si="33"/>
-        <v>1.6344908282188535E-2</v>
+        <v>3.0186834601181826E-2</v>
       </c>
       <c r="AL33">
         <f t="shared" si="34"/>
-        <v>0.81733874395647377</v>
+        <v>0.82121854576800579</v>
       </c>
       <c r="AM33">
         <f t="shared" si="35"/>
-        <v>0.15188201242518809</v>
+        <v>0.10982361754782213</v>
       </c>
       <c r="AN33">
         <f t="shared" si="36"/>
-        <v>3.0779243618338045E-2</v>
+        <v>6.895783668417213E-2</v>
       </c>
       <c r="AO33">
         <f t="shared" si="37"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="AP33" s="100">
         <f t="shared" si="38"/>
-        <v>0.19314864610598939</v>
+        <v>0.16662621588156826</v>
       </c>
       <c r="AQ33" s="100">
         <f t="shared" si="39"/>
-        <v>3.0779243618338045E-2</v>
+        <v>6.895783668417213E-2</v>
       </c>
       <c r="AS33">
         <f t="shared" si="40"/>
-        <v>0.87975917367950718</v>
+        <v>0.95016106718135185</v>
       </c>
       <c r="AT33">
         <f t="shared" si="41"/>
-        <v>6.0919365987290544E-2</v>
+        <v>2.3309236466885486E-2</v>
       </c>
       <c r="AU33">
         <f t="shared" si="42"/>
-        <v>5.9321460333202451E-2</v>
+        <v>2.6529696351762687E-2</v>
       </c>
       <c r="AV33">
         <f t="shared" si="43"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="AW33" s="100">
         <f t="shared" si="44"/>
-        <v>0.10459288579534319</v>
+        <v>4.2232115227731168E-2</v>
       </c>
       <c r="AX33" s="100">
         <f t="shared" si="45"/>
-        <v>5.9321460333202451E-2</v>
+        <v>2.6529696351762687E-2</v>
       </c>
       <c r="AY33" s="100"/>
       <c r="AZ33" s="100">
         <f t="shared" si="46"/>
-        <v>0.84838895916727308</v>
+        <v>0.90005195106281832</v>
       </c>
       <c r="BA33" s="100">
         <f t="shared" si="47"/>
-        <v>5.874711972246581E-2</v>
+        <v>2.2079965686281514E-2</v>
       </c>
       <c r="BB33" s="100">
         <f t="shared" si="48"/>
-        <v>9.2863921110261302E-2</v>
+        <v>7.786808325090018E-2</v>
       </c>
       <c r="BC33" s="100">
         <f t="shared" si="49"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="BD33" s="100">
         <f t="shared" si="50"/>
-        <v>0.12145034062277514</v>
+        <v>7.0452907091532069E-2</v>
       </c>
       <c r="BE33" s="100">
         <f t="shared" si="51"/>
-        <v>9.2863921110261302E-2</v>
+        <v>7.786808325090018E-2</v>
       </c>
       <c r="BF33" s="100"/>
       <c r="BG33" s="100">
         <f t="shared" si="52"/>
-        <v>0.65975267981393726</v>
+        <v>0.72201186025219588</v>
       </c>
       <c r="BH33" s="100">
         <f t="shared" si="53"/>
-        <v>0.13184099221554854</v>
+        <v>6.1411589841863921E-2</v>
       </c>
       <c r="BI33" s="100">
         <f t="shared" si="54"/>
-        <v>0.20840632797051423</v>
+        <v>0.21657654990594019</v>
       </c>
       <c r="BJ33" s="100">
         <f t="shared" si="8"/>
@@ -47024,24 +47089,24 @@
       </c>
       <c r="BK33" s="100">
         <f t="shared" si="55"/>
-        <v>0.27256031424634641</v>
+        <v>0.19595252524148099</v>
       </c>
       <c r="BL33" s="100">
         <f t="shared" si="56"/>
-        <v>0.20840632797051423</v>
+        <v>0.21657654990594019</v>
       </c>
       <c r="BM33" s="100"/>
       <c r="BN33" s="3">
         <f t="shared" si="9"/>
-        <v>0.92551610189432498</v>
+        <v>0.95044394880613525</v>
       </c>
       <c r="BO33" s="92">
         <f t="shared" si="10"/>
-        <v>1.2077084549371848E-2</v>
+        <v>2.3018456430066257E-2</v>
       </c>
       <c r="BP33" s="3">
         <f t="shared" si="11"/>
-        <v>6.2406813556303189E-2</v>
+        <v>2.6537594763798512E-2</v>
       </c>
       <c r="BQ33">
         <f t="shared" si="57"/>
@@ -47049,48 +47114,48 @@
       </c>
       <c r="BR33" s="100">
         <f t="shared" si="58"/>
-        <v>4.9976006637209844E-2</v>
+        <v>4.1900911512981122E-2</v>
       </c>
       <c r="BS33" s="100">
         <f t="shared" si="59"/>
-        <v>6.2406813556303189E-2</v>
+        <v>2.6537594763798512E-2</v>
       </c>
       <c r="BT33" s="100"/>
       <c r="BU33" s="3">
         <f t="shared" si="60"/>
-        <v>0.84969828301486205</v>
+        <v>0.8973145844444429</v>
       </c>
       <c r="BV33" s="92">
         <f t="shared" si="61"/>
-        <v>9.3007238565275832E-2</v>
+        <v>7.7631259708130021E-2</v>
       </c>
       <c r="BW33" s="3">
         <f t="shared" si="62"/>
-        <v>5.7294478419862245E-2</v>
+        <v>2.5054155847427047E-2</v>
       </c>
       <c r="BX33">
         <f t="shared" si="63"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="BY33" s="100">
         <f t="shared" si="64"/>
-        <v>0.14047449098327816</v>
+        <v>0.10410588100286806</v>
       </c>
       <c r="BZ33" s="100">
         <f t="shared" si="65"/>
-        <v>5.7294478419862245E-2</v>
+        <v>2.5054155847427047E-2</v>
       </c>
       <c r="CB33" s="103">
         <f>'Amphibole P-T calcs'!EU33</f>
-        <v>7.007069109430887</v>
+        <v>7.3970285191439968</v>
       </c>
       <c r="CC33" s="103">
         <f>'Amphibole P-T calcs'!EV33</f>
-        <v>0.16849406630935668</v>
+        <v>7.4497940828541304E-2</v>
       </c>
       <c r="CD33" s="103">
         <f>'Amphibole P-T calcs'!EW33</f>
-        <v>1.2596314112227383</v>
+        <v>0.75088629466708745</v>
       </c>
       <c r="CE33" s="103">
         <f>'Amphibole P-T calcs'!EX33</f>
@@ -47102,75 +47167,75 @@
       </c>
       <c r="CG33" s="103">
         <f>'Amphibole P-T calcs'!EZ33</f>
-        <v>1.5901150246264568</v>
+        <v>2.1609136577838566</v>
       </c>
       <c r="CH33" s="103">
         <f>'Amphibole P-T calcs'!FA33</f>
-        <v>3.9682480538094853E-2</v>
+        <v>5.5090637195895048E-2</v>
       </c>
       <c r="CI33" s="103">
         <f>'Amphibole P-T calcs'!FB33</f>
-        <v>3.2258686966923049</v>
+        <v>2.7942662883604998</v>
       </c>
       <c r="CJ33" s="103">
         <f>'Amphibole P-T calcs'!FC33</f>
-        <v>1.6863406428040402</v>
+        <v>1.7517343869806767</v>
       </c>
       <c r="CK33" s="103">
         <f>'Amphibole P-T calcs'!FD33</f>
-        <v>0.40308736800981532</v>
+        <v>0.26367864415419828</v>
       </c>
       <c r="CL33" s="103">
         <f>'Amphibole P-T calcs'!FE33</f>
-        <v>3.175200603920865E-2</v>
+        <v>7.3546691312538076E-2</v>
       </c>
       <c r="CM33">
         <f t="shared" si="66"/>
-        <v>4.8556662018568559</v>
+        <v>5.010270583340251</v>
       </c>
       <c r="CN33">
         <f t="shared" si="67"/>
-        <v>15.372358325134808</v>
+        <v>15.266552423231396</v>
       </c>
       <c r="CO33">
         <f t="shared" si="68"/>
-        <v>13.290860788819838</v>
+        <v>13.232683337979879</v>
       </c>
       <c r="CQ33" s="3">
         <f t="shared" si="12"/>
-        <v>0.4558226500597421</v>
+        <v>0.48452514451709489</v>
       </c>
       <c r="CR33" s="3">
         <f t="shared" si="13"/>
-        <v>1.0960846914026059E-2</v>
+        <v>4.8798143001281945E-3</v>
       </c>
       <c r="CS33" s="3">
         <f t="shared" si="14"/>
-        <v>8.194132510970413E-2</v>
+        <v>4.9185059851787484E-2</v>
       </c>
       <c r="CT33" s="3">
         <f t="shared" si="15"/>
-        <v>0.103439888076673</v>
+        <v>0.14154562195034645</v>
       </c>
       <c r="CU33" s="3">
         <f t="shared" si="16"/>
-        <v>0.20984865356786533</v>
+        <v>0.18303191256910192</v>
       </c>
       <c r="CV33" s="3">
         <f t="shared" si="17"/>
-        <v>0.1096995403787045</v>
+        <v>0.11474328574112319</v>
       </c>
       <c r="CW33" s="3">
         <f t="shared" si="18"/>
-        <v>2.6221569877846341E-2</v>
+        <v>1.7271656156825139E-2</v>
       </c>
       <c r="CX33" s="3">
         <f t="shared" si="19"/>
-        <v>2.0655260154385062E-3</v>
+        <v>4.8175049135927191E-3</v>
       </c>
       <c r="CY33" s="3">
         <f t="shared" si="69"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="34" spans="1:103" ht="15">
@@ -47184,35 +47249,35 @@
       </c>
       <c r="D34" s="108">
         <f t="shared" si="0"/>
-        <v>4.8416747684621432E-2</v>
+        <v>2.7997502701938317E-2</v>
       </c>
       <c r="E34" s="108">
         <f t="shared" si="1"/>
-        <v>0.26245005992696024</v>
+        <v>0.22782368744191592</v>
       </c>
       <c r="F34" s="108">
         <f t="shared" si="2"/>
-        <v>5.6038592094683343E-2</v>
+        <v>2.6754553473975658E-2</v>
       </c>
       <c r="G34" s="108">
         <f t="shared" si="3"/>
-        <v>9.7922221922332742E-3</v>
+        <v>2.2937348497498629E-2</v>
       </c>
       <c r="H34" s="108">
         <f t="shared" si="4"/>
-        <v>5.3155955115343934E-2</v>
+        <v>2.2495383579666694E-2</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" si="5"/>
-        <v>7.2811975646710103E-2</v>
+        <v>7.3481843874151728E-2</v>
       </c>
       <c r="J34" s="108">
         <f t="shared" si="6"/>
-        <v>0.49733444733944765</v>
+        <v>0.59850968043085306</v>
       </c>
       <c r="K34" s="108">
         <f t="shared" si="7"/>
-        <v>-4.672892795604692E-3</v>
+        <v>1.5635458928386064E-3</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="20"/>
@@ -47220,44 +47285,44 @@
       </c>
       <c r="N34" s="108">
         <f t="array" ref="N34:U34">MMULT(CQ34:CX34,$U$3:$AB$10)</f>
-        <v>1.0218568706094871E-2</v>
+        <v>7.0780570792305783E-3</v>
       </c>
       <c r="O34" s="108">
-        <v>5.539124574726851E-2</v>
+        <v>5.759617494752587E-2</v>
       </c>
       <c r="P34" s="108">
-        <v>1.1827192673956329E-2</v>
+        <v>6.7638267110521977E-3</v>
       </c>
       <c r="Q34" s="108">
-        <v>2.0666917965757002E-3</v>
+        <v>5.798797972801307E-3</v>
       </c>
       <c r="R34" s="108">
-        <v>1.1218799391946067E-2</v>
+        <v>5.687064688988986E-3</v>
       </c>
       <c r="S34" s="108">
-        <v>1.5367289447422768E-2</v>
+        <v>1.8576967051863083E-2</v>
       </c>
       <c r="T34" s="108">
-        <v>0.10496463441017276</v>
+        <v>0.15130941233084852</v>
       </c>
       <c r="U34" s="108">
-        <v>-9.8623468885476501E-4</v>
+        <v>3.9528050745547437E-4</v>
       </c>
       <c r="V34" s="108">
         <f t="shared" si="21"/>
-        <v>0.21105442217343701</v>
+        <v>0.25281030078231054</v>
       </c>
       <c r="X34">
         <f t="shared" si="22"/>
-        <v>0.90194052064288688</v>
+        <v>0.89550915757295668</v>
       </c>
       <c r="Y34">
         <f t="shared" si="23"/>
-        <v>8.6435128112982068E-2</v>
+        <v>7.9633313458038854E-2</v>
       </c>
       <c r="Z34">
         <f t="shared" si="24"/>
-        <v>1.1624351244130979E-2</v>
+        <v>2.4857528969004398E-2</v>
       </c>
       <c r="AA34">
         <f t="shared" si="25"/>
@@ -47265,47 +47330,47 @@
       </c>
       <c r="AB34" s="100">
         <f t="shared" si="26"/>
-        <v>0.10651801128689374</v>
+        <v>0.10630413096456476</v>
       </c>
       <c r="AC34" s="100">
         <f t="shared" si="27"/>
-        <v>1.1624351244130979E-2</v>
+        <v>2.4857528969004398E-2</v>
       </c>
       <c r="AE34">
         <f t="shared" si="28"/>
-        <v>0.89658576931589096</v>
+        <v>0.93238572222195004</v>
       </c>
       <c r="AF34">
         <f t="shared" si="29"/>
-        <v>8.7327106830631357E-2</v>
+        <v>3.3478266539111172E-2</v>
       </c>
       <c r="AG34">
         <f t="shared" si="30"/>
-        <v>1.6087123853477603E-2</v>
+        <v>3.4136011238938745E-2</v>
       </c>
       <c r="AH34">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AI34" s="100">
         <f t="shared" si="32"/>
-        <v>0.11012456255972458</v>
+        <v>5.8365807674577122E-2</v>
       </c>
       <c r="AJ34" s="100">
         <f t="shared" si="33"/>
-        <v>1.6087123853477603E-2</v>
+        <v>3.4136011238938745E-2</v>
       </c>
       <c r="AL34">
         <f t="shared" si="34"/>
-        <v>0.81847082269141769</v>
+        <v>0.81727967348483976</v>
       </c>
       <c r="AM34">
         <f t="shared" si="35"/>
-        <v>0.15099137458952483</v>
+        <v>0.10043639501912996</v>
       </c>
       <c r="AN34">
         <f t="shared" si="36"/>
-        <v>3.053780271905748E-2</v>
+        <v>8.2283931496030416E-2</v>
       </c>
       <c r="AO34">
         <f t="shared" si="37"/>
@@ -47313,48 +47378,48 @@
       </c>
       <c r="AP34" s="100">
         <f t="shared" si="38"/>
-        <v>0.19198083014945508</v>
+        <v>0.16348060940067441</v>
       </c>
       <c r="AQ34" s="100">
         <f t="shared" si="39"/>
-        <v>3.053780271905748E-2</v>
+        <v>8.2283931496030416E-2</v>
       </c>
       <c r="AS34">
         <f t="shared" si="40"/>
-        <v>0.8743415659473891</v>
+        <v>0.94375185459048738</v>
       </c>
       <c r="AT34">
         <f t="shared" si="41"/>
-        <v>6.4487851353847547E-2</v>
+        <v>3.0556262691902578E-2</v>
       </c>
       <c r="AU34">
         <f t="shared" si="42"/>
-        <v>6.1170582698763319E-2</v>
+        <v>2.5691882717609974E-2</v>
       </c>
       <c r="AV34">
         <f t="shared" si="43"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="100">
         <f t="shared" si="44"/>
-        <v>0.10978100906482617</v>
+        <v>5.0116548384198156E-2</v>
       </c>
       <c r="AX34" s="100">
         <f t="shared" si="45"/>
-        <v>6.1170582698763319E-2</v>
+        <v>2.5691882717609974E-2</v>
       </c>
       <c r="AY34" s="100"/>
       <c r="AZ34" s="100">
         <f t="shared" si="46"/>
-        <v>0.85500170838939438</v>
+        <v>0.89181991350189282</v>
       </c>
       <c r="BA34" s="100">
         <f t="shared" si="47"/>
-        <v>6.30614227040176E-2</v>
+        <v>2.8874839734919812E-2</v>
       </c>
       <c r="BB34" s="100">
         <f t="shared" si="48"/>
-        <v>8.193686890658787E-2</v>
+        <v>7.9305246763187329E-2</v>
       </c>
       <c r="BC34" s="100">
         <f t="shared" si="49"/>
@@ -47362,24 +47427,24 @@
       </c>
       <c r="BD34" s="100">
         <f t="shared" si="50"/>
-        <v>0.12012333206706426</v>
+        <v>7.912869855440241E-2</v>
       </c>
       <c r="BE34" s="100">
         <f t="shared" si="51"/>
-        <v>8.193686890658787E-2</v>
+        <v>7.9305246763187329E-2</v>
       </c>
       <c r="BF34" s="100"/>
       <c r="BG34" s="100">
         <f t="shared" si="52"/>
-        <v>0.67071208520881653</v>
+        <v>0.69445719855776378</v>
       </c>
       <c r="BH34" s="100">
         <f t="shared" si="53"/>
-        <v>0.14321109687096842</v>
+        <v>8.155382112730486E-2</v>
       </c>
       <c r="BI34" s="100">
         <f t="shared" si="54"/>
-        <v>0.18607681792021502</v>
+        <v>0.22398898031493139</v>
       </c>
       <c r="BJ34" s="100">
         <f t="shared" si="8"/>
@@ -47387,24 +47452,24 @@
       </c>
       <c r="BK34" s="100">
         <f t="shared" si="55"/>
-        <v>0.27279743157497549</v>
+        <v>0.2234903392429195</v>
       </c>
       <c r="BL34" s="100">
         <f t="shared" si="56"/>
-        <v>0.18607681792021502</v>
+        <v>0.22398898031493139</v>
       </c>
       <c r="BM34" s="100"/>
       <c r="BN34" s="3">
         <f t="shared" si="9"/>
-        <v>0.92348890655757521</v>
+        <v>0.94788426381827129</v>
       </c>
       <c r="BO34" s="92">
         <f t="shared" si="10"/>
-        <v>1.190207022989944E-2</v>
+        <v>2.6311356336081348E-2</v>
       </c>
       <c r="BP34" s="3">
         <f t="shared" si="11"/>
-        <v>6.4609023212525402E-2</v>
+        <v>2.5804379845647367E-2</v>
       </c>
       <c r="BQ34">
         <f t="shared" si="57"/>
@@ -47412,24 +47477,24 @@
       </c>
       <c r="BR34" s="100">
         <f t="shared" si="58"/>
-        <v>5.1045363846122863E-2</v>
+        <v>4.5279902976917322E-2</v>
       </c>
       <c r="BS34" s="100">
         <f t="shared" si="59"/>
-        <v>6.4609023212525402E-2</v>
+        <v>2.5804379845647367E-2</v>
       </c>
       <c r="BT34" s="100"/>
       <c r="BU34" s="3">
         <f t="shared" si="60"/>
-        <v>0.85778426865813906</v>
+        <v>0.89593827942545412</v>
       </c>
       <c r="BV34" s="92">
         <f t="shared" si="61"/>
-        <v>8.2203528345659985E-2</v>
+        <v>7.9671473196219797E-2</v>
       </c>
       <c r="BW34" s="3">
         <f t="shared" si="62"/>
-        <v>6.0012202996200928E-2</v>
+        <v>2.439024737832611E-2</v>
       </c>
       <c r="BX34">
         <f t="shared" si="63"/>
@@ -47437,27 +47502,27 @@
       </c>
       <c r="BY34" s="100">
         <f t="shared" si="64"/>
-        <v>0.1295685199919267</v>
+        <v>0.10607840888262124</v>
       </c>
       <c r="BZ34" s="100">
         <f t="shared" si="65"/>
-        <v>6.0012202996200928E-2</v>
+        <v>2.439024737832611E-2</v>
       </c>
       <c r="CB34" s="103">
         <f>'Amphibole P-T calcs'!EU34</f>
-        <v>6.9542871079555146</v>
+        <v>7.3208077629931188</v>
       </c>
       <c r="CC34" s="103">
         <f>'Amphibole P-T calcs'!EV34</f>
-        <v>0.18193713619812268</v>
+        <v>0.10349159588748938</v>
       </c>
       <c r="CD34" s="103">
         <f>'Amphibole P-T calcs'!EW34</f>
-        <v>1.2905815534177356</v>
+        <v>0.83928998376798969</v>
       </c>
       <c r="CE34" s="103">
         <f>'Amphibole P-T calcs'!EX34</f>
-        <v>0</v>
+        <v>1.1954215001066374E-3</v>
       </c>
       <c r="CF34" s="103">
         <f>'Amphibole P-T calcs'!EY34</f>
@@ -47465,71 +47530,71 @@
       </c>
       <c r="CG34" s="103">
         <f>'Amphibole P-T calcs'!EZ34</f>
-        <v>1.6146659239534995</v>
+        <v>2.3151469166603893</v>
       </c>
       <c r="CH34" s="103">
         <f>'Amphibole P-T calcs'!FA34</f>
-        <v>4.4698769116042925E-2</v>
+        <v>4.7382837951589596E-2</v>
       </c>
       <c r="CI34" s="103">
         <f>'Amphibole P-T calcs'!FB34</f>
-        <v>3.2189870433441587</v>
+        <v>2.571747982089275</v>
       </c>
       <c r="CJ34" s="103">
         <f>'Amphibole P-T calcs'!FC34</f>
-        <v>1.704161739733181</v>
+        <v>1.7625289106223192</v>
       </c>
       <c r="CK34" s="103">
         <f>'Amphibole P-T calcs'!FD34</f>
-        <v>0.38653959030772667</v>
+        <v>0.29900711794416734</v>
       </c>
       <c r="CL34" s="103">
         <f>'Amphibole P-T calcs'!FE34</f>
-        <v>3.1791820530759747E-2</v>
+        <v>8.8725936081971005E-2</v>
       </c>
       <c r="CM34">
         <f t="shared" si="66"/>
-        <v>4.878351736413701</v>
+        <v>4.9342777367012545</v>
       </c>
       <c r="CN34">
         <f t="shared" si="67"/>
-        <v>15.382951915440698</v>
+        <v>15.300746206046719</v>
       </c>
       <c r="CO34">
         <f t="shared" si="68"/>
-        <v>13.305157533985073</v>
+        <v>13.199062500849958</v>
       </c>
       <c r="CQ34" s="3">
         <f t="shared" si="12"/>
-        <v>0.45207754312584975</v>
+        <v>0.47846083219784408</v>
       </c>
       <c r="CR34" s="3">
         <f t="shared" si="13"/>
-        <v>1.1827192673956329E-2</v>
+        <v>6.7638267110521977E-3</v>
       </c>
       <c r="CS34" s="3">
         <f t="shared" si="14"/>
-        <v>8.3896872363119684E-2</v>
+        <v>5.4852879229923421E-2</v>
       </c>
       <c r="CT34" s="3">
         <f t="shared" si="15"/>
-        <v>0.10496463441017276</v>
+        <v>0.15130941233084852</v>
       </c>
       <c r="CU34" s="3">
         <f t="shared" si="16"/>
-        <v>0.20925678381098545</v>
+        <v>0.16807990587236477</v>
       </c>
       <c r="CV34" s="3">
         <f t="shared" si="17"/>
-        <v>0.11078249149453702</v>
+        <v>0.11519234989505174</v>
       </c>
       <c r="CW34" s="3">
         <f t="shared" si="18"/>
-        <v>2.5127790324803397E-2</v>
+        <v>1.9541995790113974E-2</v>
       </c>
       <c r="CX34" s="3">
         <f t="shared" si="19"/>
-        <v>2.0666917965757002E-3</v>
+        <v>5.798797972801307E-3</v>
       </c>
       <c r="CY34" s="3">
         <f t="shared" si="69"/>
@@ -47547,35 +47612,35 @@
       </c>
       <c r="D35" s="108">
         <f t="shared" si="0"/>
-        <v>3.0710657848994759E-2</v>
+        <v>3.4131760575234885E-2</v>
       </c>
       <c r="E35" s="108">
         <f t="shared" si="1"/>
-        <v>0.30308135804695774</v>
+        <v>0.18756546692051707</v>
       </c>
       <c r="F35" s="108">
         <f t="shared" si="2"/>
-        <v>7.5403599142261454E-2</v>
+        <v>3.5636136149603814E-2</v>
       </c>
       <c r="G35" s="108">
         <f t="shared" si="3"/>
-        <v>1.3295022230712364E-2</v>
+        <v>4.3722072011494861E-2</v>
       </c>
       <c r="H35" s="108">
         <f t="shared" si="4"/>
-        <v>0.13065174046967554</v>
+        <v>4.9631381363728633E-2</v>
       </c>
       <c r="I35" s="108">
         <f t="shared" si="5"/>
-        <v>0.16881571027912509</v>
+        <v>0.11036548684152377</v>
       </c>
       <c r="J35" s="108">
         <f t="shared" si="6"/>
-        <v>0.27804191198227302</v>
+        <v>0.53894769613789706</v>
       </c>
       <c r="K35" s="108">
         <f t="shared" si="7"/>
-        <v>-4.6300662444607177E-3</v>
+        <v>-8.3164540406786738E-4</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="20"/>
@@ -47583,44 +47648,44 @@
       </c>
       <c r="N35" s="108">
         <f t="array" ref="N35:U35">MMULT(CQ35:CX35,$U$3:$AB$10)</f>
-        <v>5.9083343074058207E-3</v>
+        <v>9.8592677129442554E-3</v>
       </c>
       <c r="O35" s="108">
-        <v>5.8308942598655607E-2</v>
+        <v>5.4179981369450403E-2</v>
       </c>
       <c r="P35" s="108">
-        <v>1.4506679534664614E-2</v>
+        <v>1.0293820202430522E-2</v>
       </c>
       <c r="Q35" s="108">
-        <v>2.5577907301654276E-3</v>
+        <v>1.2629515901348682E-2</v>
       </c>
       <c r="R35" s="108">
-        <v>2.5135709053674113E-2</v>
+        <v>1.4336473348617047E-2</v>
       </c>
       <c r="S35" s="108">
-        <v>3.2477964411429382E-2</v>
+        <v>3.1880068965136329E-2</v>
       </c>
       <c r="T35" s="108">
-        <v>5.3491676262328758E-2</v>
+        <v>0.1556799160062517</v>
       </c>
       <c r="U35" s="108">
-        <v>-8.9076500321872201E-4</v>
+        <v>-2.4022829595535386E-4</v>
       </c>
       <c r="V35" s="108">
         <f t="shared" si="21"/>
-        <v>0.19238709689832373</v>
+        <v>0.28885904350617891</v>
       </c>
       <c r="X35">
         <f t="shared" si="22"/>
-        <v>0.76139593898593938</v>
+        <v>0.82501994942888968</v>
       </c>
       <c r="Y35">
         <f t="shared" si="23"/>
-        <v>0.22118473458666929</v>
+        <v>0.12532977102490256</v>
       </c>
       <c r="Z35">
         <f t="shared" si="24"/>
-        <v>1.7419326427391212E-2</v>
+        <v>4.9650279546207605E-2</v>
       </c>
       <c r="AA35">
         <f t="shared" si="25"/>
@@ -47628,23 +47693,23 @@
       </c>
       <c r="AB35" s="100">
         <f t="shared" si="26"/>
-        <v>0.26545918491045517</v>
+        <v>0.17338395633874643</v>
       </c>
       <c r="AC35" s="100">
         <f t="shared" si="27"/>
-        <v>1.7419326427391212E-2</v>
+        <v>4.9650279546207605E-2</v>
       </c>
       <c r="AE35">
         <f t="shared" si="28"/>
-        <v>0.68202567939434233</v>
+        <v>0.85992070325151448</v>
       </c>
       <c r="AF35">
         <f t="shared" si="29"/>
-        <v>0.28860599316333102</v>
+        <v>7.4473184940924544E-2</v>
       </c>
       <c r="AG35">
         <f t="shared" si="30"/>
-        <v>2.9368327442326609E-2</v>
+        <v>6.5606111807560957E-2</v>
       </c>
       <c r="AH35">
         <f t="shared" si="31"/>
@@ -47652,23 +47717,23 @@
       </c>
       <c r="AI35" s="100">
         <f t="shared" si="32"/>
-        <v>0.35020930743965323</v>
+        <v>0.12387193305868313</v>
       </c>
       <c r="AJ35" s="100">
         <f t="shared" si="33"/>
-        <v>2.9368327442326609E-2</v>
+        <v>6.5606111807560957E-2</v>
       </c>
       <c r="AL35">
         <f t="shared" si="34"/>
-        <v>0.87321427986127265</v>
+        <v>0.70667606789986248</v>
       </c>
       <c r="AM35">
         <f t="shared" si="35"/>
-        <v>8.8481142985775529E-2</v>
+        <v>0.12859562450281795</v>
       </c>
       <c r="AN35">
         <f t="shared" si="36"/>
-        <v>3.8304577152951817E-2</v>
+        <v>0.16472830759731966</v>
       </c>
       <c r="AO35">
         <f t="shared" si="37"/>
@@ -47676,23 +47741,23 @@
       </c>
       <c r="AP35" s="100">
         <f t="shared" si="38"/>
-        <v>0.12428438137253806</v>
+        <v>0.24359536958108391</v>
       </c>
       <c r="AQ35" s="100">
         <f t="shared" si="39"/>
-        <v>3.8304577152951817E-2</v>
+        <v>0.16472830759731966</v>
       </c>
       <c r="AS35">
         <f t="shared" si="40"/>
-        <v>0.73823559597755517</v>
+        <v>0.89496237154439606</v>
       </c>
       <c r="AT35">
         <f t="shared" si="41"/>
-        <v>9.5789695272123665E-2</v>
+        <v>4.3898724128917266E-2</v>
       </c>
       <c r="AU35">
         <f t="shared" si="42"/>
-        <v>0.16597470875032111</v>
+        <v>6.1138904326686706E-2</v>
       </c>
       <c r="AV35">
         <f t="shared" si="43"/>
@@ -47700,74 +47765,74 @@
       </c>
       <c r="AW35" s="100">
         <f t="shared" si="44"/>
-        <v>0.20643395547757326</v>
+        <v>8.5988443256794347E-2</v>
       </c>
       <c r="AX35" s="100">
         <f t="shared" si="45"/>
-        <v>0.16597470875032111</v>
+        <v>6.1138904326686706E-2</v>
       </c>
       <c r="AY35" s="100"/>
       <c r="AZ35" s="100">
         <f t="shared" si="46"/>
-        <v>0.70409946669182</v>
+        <v>0.83266573205919558</v>
       </c>
       <c r="BA35" s="100">
         <f t="shared" si="47"/>
-        <v>9.1360364798400762E-2</v>
+        <v>4.0843016897114656E-2</v>
       </c>
       <c r="BB35" s="100">
         <f t="shared" si="48"/>
-        <v>0.20454016850977919</v>
+        <v>0.12649125104368966</v>
       </c>
       <c r="BC35" s="100">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="BD35" s="100">
         <f t="shared" si="50"/>
-        <v>0.2235851837684506</v>
+        <v>0.12019121144033791</v>
       </c>
       <c r="BE35" s="100">
         <f t="shared" si="51"/>
-        <v>0.20454016850977919</v>
+        <v>0.12649125104368966</v>
       </c>
       <c r="BF35" s="100"/>
       <c r="BG35" s="100">
         <f t="shared" si="52"/>
-        <v>0.55377487377993717</v>
+        <v>0.56230207533422871</v>
       </c>
       <c r="BH35" s="100">
         <f t="shared" si="53"/>
-        <v>0.13777362905668808</v>
+        <v>0.10683348935604864</v>
       </c>
       <c r="BI35" s="100">
         <f t="shared" si="54"/>
-        <v>0.30845149716337472</v>
+        <v>0.33086443530972254</v>
       </c>
       <c r="BJ35" s="100">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="BK35" s="100">
         <f t="shared" si="55"/>
-        <v>0.33717183856543853</v>
+        <v>0.31438535846770521</v>
       </c>
       <c r="BL35" s="100">
         <f t="shared" si="56"/>
-        <v>0.30845149716337472</v>
+        <v>0.33086443530972254</v>
       </c>
       <c r="BM35" s="100"/>
       <c r="BN35" s="3">
         <f t="shared" si="9"/>
-        <v>0.80147191829390318</v>
+        <v>0.88613580367340172</v>
       </c>
       <c r="BO35" s="92">
         <f t="shared" si="10"/>
-        <v>1.8336190478954916E-2</v>
+        <v>5.332827454505077E-2</v>
       </c>
       <c r="BP35" s="3">
         <f t="shared" si="11"/>
-        <v>0.18019189122714172</v>
+        <v>6.053592178154743E-2</v>
       </c>
       <c r="BQ35">
         <f t="shared" si="57"/>
@@ -47775,24 +47840,24 @@
       </c>
       <c r="BR35" s="100">
         <f t="shared" si="58"/>
-        <v>0.12520664592365177</v>
+        <v>9.6528618064225191E-2</v>
       </c>
       <c r="BS35" s="100">
         <f t="shared" si="59"/>
-        <v>0.18019189122714172</v>
+        <v>6.053592178154743E-2</v>
       </c>
       <c r="BT35" s="100"/>
       <c r="BU35" s="3">
         <f t="shared" si="60"/>
-        <v>0.65992436249588105</v>
+        <v>0.81952052141227716</v>
       </c>
       <c r="BV35" s="92">
         <f t="shared" si="61"/>
-        <v>0.19170734632539707</v>
+        <v>0.12449434631236425</v>
       </c>
       <c r="BW35" s="3">
         <f t="shared" si="62"/>
-        <v>0.14836829117872191</v>
+        <v>5.5985132275358576E-2</v>
       </c>
       <c r="BX35">
         <f t="shared" si="63"/>
@@ -47800,23 +47865,23 @@
       </c>
       <c r="BY35" s="100">
         <f t="shared" si="64"/>
-        <v>0.30702504886443349</v>
+        <v>0.17607671990185506</v>
       </c>
       <c r="BZ35" s="100">
         <f t="shared" si="65"/>
-        <v>0.14836829117872191</v>
+        <v>5.5985132275358576E-2</v>
       </c>
       <c r="CB35" s="103">
         <f>'Amphibole P-T calcs'!EU35</f>
-        <v>6.1498143908785199</v>
+        <v>6.6784839765511776</v>
       </c>
       <c r="CC35" s="103">
         <f>'Amphibole P-T calcs'!EV35</f>
-        <v>0.22774105849445558</v>
+        <v>0.16047010843571599</v>
       </c>
       <c r="CD35" s="103">
         <f>'Amphibole P-T calcs'!EW35</f>
-        <v>2.5437820524761277</v>
+        <v>1.7118815363774922</v>
       </c>
       <c r="CE35" s="103">
         <f>'Amphibole P-T calcs'!EX35</f>
@@ -47828,75 +47893,75 @@
       </c>
       <c r="CG35" s="103">
         <f>'Amphibole P-T calcs'!EZ35</f>
-        <v>0.83976839382956292</v>
+        <v>2.4268903586335959</v>
       </c>
       <c r="CH35" s="103">
         <f>'Amphibole P-T calcs'!FA35</f>
-        <v>2.0312603962997038E-2</v>
+        <v>4.4853747184805379E-2</v>
       </c>
       <c r="CI35" s="103">
         <f>'Amphibole P-T calcs'!FB35</f>
-        <v>3.36953815555289</v>
+        <v>2.2645807842928312</v>
       </c>
       <c r="CJ35" s="103">
         <f>'Amphibole P-T calcs'!FC35</f>
-        <v>1.8307897786503753</v>
+        <v>1.6892207779863755</v>
       </c>
       <c r="CK35" s="103">
         <f>'Amphibole P-T calcs'!FD35</f>
-        <v>0.69745930161317915</v>
+        <v>0.46056650383070424</v>
       </c>
       <c r="CL35" s="103">
         <f>'Amphibole P-T calcs'!FE35</f>
-        <v>4.0154879474881035E-2</v>
+        <v>0.19688121089403698</v>
       </c>
       <c r="CM35">
         <f t="shared" si="66"/>
-        <v>4.2296191533454497</v>
+        <v>4.7363248901112325</v>
       </c>
       <c r="CN35">
         <f t="shared" si="67"/>
-        <v>15.699048010969991</v>
+        <v>15.588975257001927</v>
       </c>
       <c r="CO35">
         <f t="shared" si="68"/>
-        <v>13.150956655194552</v>
+        <v>13.287160511475616</v>
       </c>
       <c r="CQ35" s="3">
         <f t="shared" si="12"/>
-        <v>0.39173167612336923</v>
+        <v>0.42841071118843921</v>
       </c>
       <c r="CR35" s="3">
         <f t="shared" si="13"/>
-        <v>1.4506679534664614E-2</v>
+        <v>1.0293820202430522E-2</v>
       </c>
       <c r="CS35" s="3">
         <f t="shared" si="14"/>
-        <v>0.16203415969545507</v>
+        <v>0.10981360276446557</v>
       </c>
       <c r="CT35" s="3">
         <f t="shared" si="15"/>
-        <v>5.3491676262328758E-2</v>
+        <v>0.1556799160062517</v>
       </c>
       <c r="CU35" s="3">
         <f t="shared" si="16"/>
-        <v>0.21463327924077721</v>
+        <v>0.14526809793194551</v>
       </c>
       <c r="CV35" s="3">
         <f t="shared" si="17"/>
-        <v>0.11661788519731121</v>
+        <v>0.10835996273890081</v>
       </c>
       <c r="CW35" s="3">
         <f t="shared" si="18"/>
-        <v>4.4426853215928569E-2</v>
+        <v>2.9544373266218168E-2</v>
       </c>
       <c r="CX35" s="3">
         <f t="shared" si="19"/>
-        <v>2.5577907301654276E-3</v>
+        <v>1.2629515901348682E-2</v>
       </c>
       <c r="CY35" s="3">
         <f t="shared" si="69"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:103" ht="15">
@@ -47910,35 +47975,35 @@
       </c>
       <c r="D36" s="108">
         <f t="shared" si="0"/>
-        <v>0.33736297971050933</v>
+        <v>2.8169671166843845E-2</v>
       </c>
       <c r="E36" s="108">
         <f t="shared" si="1"/>
-        <v>3.7643399066431361E-2</v>
+        <v>0.18364896938744929</v>
       </c>
       <c r="F36" s="108">
         <f t="shared" si="2"/>
-        <v>8.9816697487879339E-3</v>
+        <v>3.0541997323595367E-2</v>
       </c>
       <c r="G36" s="108">
         <f t="shared" si="3"/>
-        <v>5.8588556882170531E-4</v>
+        <v>3.7788241073768901E-2</v>
       </c>
       <c r="H36" s="108">
         <f t="shared" si="4"/>
-        <v>3.9874925737265331E-2</v>
+        <v>8.6991762072138892E-2</v>
       </c>
       <c r="I36" s="108">
         <f t="shared" si="5"/>
-        <v>-7.5053508705540039E-3</v>
+        <v>0.10597568936854818</v>
       </c>
       <c r="J36" s="108">
         <f t="shared" si="6"/>
-        <v>0.58305649103873836</v>
+        <v>0.52688366960765554</v>
       </c>
       <c r="K36" s="108">
         <f t="shared" si="7"/>
-        <v>-4.5486342409826887E-2</v>
+        <v>7.385901212513553E-3</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="20"/>
@@ -47946,92 +48011,92 @@
       </c>
       <c r="N36" s="108">
         <f t="array" ref="N36:U36">MMULT(CQ36:CX36,$U$3:$AB$10)</f>
-        <v>6.6104509405812792E-2</v>
+        <v>8.2882807425168261E-3</v>
       </c>
       <c r="O36" s="108">
-        <v>7.3760269422239724E-3</v>
+        <v>5.4034504248975206E-2</v>
       </c>
       <c r="P36" s="108">
-        <v>1.7599111582964262E-3</v>
+        <v>8.9862833952107524E-3</v>
       </c>
       <c r="Q36" s="108">
-        <v>1.1480120945142906E-4</v>
+        <v>1.1118324702133656E-2</v>
       </c>
       <c r="R36" s="108">
-        <v>7.813282908862778E-3</v>
+        <v>2.5595334147484026E-2</v>
       </c>
       <c r="S36" s="108">
-        <v>-1.4706342042692332E-3</v>
+        <v>3.1180920081244061E-2</v>
       </c>
       <c r="T36" s="108">
-        <v>0.114246866473209</v>
+        <v>0.1550234557759308</v>
       </c>
       <c r="U36" s="108">
-        <v>-8.91281062387639E-3</v>
+        <v>2.1731323174925972E-3</v>
       </c>
       <c r="V36" s="108">
         <f t="shared" si="21"/>
-        <v>0.19594476389358717</v>
+        <v>0.29422710309349531</v>
       </c>
       <c r="X36">
         <f t="shared" si="22"/>
-        <v>1.011273519034023</v>
+        <v>0.83171660101949185</v>
       </c>
       <c r="Y36">
         <f t="shared" si="23"/>
-        <v>-1.2228071419771306E-2</v>
+        <v>0.12405023402860686</v>
       </c>
       <c r="Z36">
         <f t="shared" si="24"/>
-        <v>9.5455238574826591E-4</v>
+        <v>4.4233164951901313E-2</v>
       </c>
       <c r="AA36">
         <f t="shared" si="25"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="100">
         <f t="shared" si="26"/>
-        <v>-1.3568649574882503E-2</v>
+        <v>0.16877890171099383</v>
       </c>
       <c r="AC36" s="100">
         <f t="shared" si="27"/>
-        <v>9.5455238574826591E-4</v>
+        <v>4.4233164951901313E-2</v>
       </c>
       <c r="AE36">
         <f t="shared" si="28"/>
-        <v>0.95789193298925757</v>
+        <v>0.8164550117145819</v>
       </c>
       <c r="AF36">
         <f t="shared" si="29"/>
-        <v>4.149832864919694E-2</v>
+        <v>0.12796042272725539</v>
       </c>
       <c r="AG36">
         <f t="shared" si="30"/>
-        <v>6.0973836154540383E-4</v>
+        <v>5.5584565558162782E-2</v>
       </c>
       <c r="AH36">
         <f t="shared" si="31"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="AI36" s="100">
         <f t="shared" si="32"/>
-        <v>4.8270175040240303E-2</v>
+        <v>0.17984773290219208</v>
       </c>
       <c r="AJ36" s="100">
         <f t="shared" si="33"/>
-        <v>6.0973836154540383E-4</v>
+        <v>5.5584565558162782E-2</v>
       </c>
       <c r="AL36">
         <f t="shared" si="34"/>
-        <v>0.10022410640432582</v>
+        <v>0.73575282936751596</v>
       </c>
       <c r="AM36">
         <f t="shared" si="35"/>
-        <v>0.89821599573717537</v>
+        <v>0.11285614796798484</v>
       </c>
       <c r="AN36">
         <f t="shared" si="36"/>
-        <v>1.5598978584988941E-3</v>
+        <v>0.15139102266449919</v>
       </c>
       <c r="AO36">
         <f t="shared" si="37"/>
@@ -48039,23 +48104,23 @@
       </c>
       <c r="AP36" s="100">
         <f t="shared" si="38"/>
-        <v>1.0380711013070845</v>
+        <v>0.21772070250628189</v>
       </c>
       <c r="AQ36" s="100">
         <f t="shared" si="39"/>
-        <v>1.5598978584988941E-3</v>
+        <v>0.15139102266449919</v>
       </c>
       <c r="AS36">
         <f t="shared" si="40"/>
-        <v>0.92703140580751364</v>
+        <v>0.8580623973824627</v>
       </c>
       <c r="AT36">
         <f t="shared" si="41"/>
-        <v>1.3414357028977262E-2</v>
+        <v>3.6883512461013838E-2</v>
       </c>
       <c r="AU36">
         <f t="shared" si="42"/>
-        <v>5.955423716350907E-2</v>
+        <v>0.10505409015652346</v>
       </c>
       <c r="AV36">
         <f t="shared" si="43"/>
@@ -48063,74 +48128,74 @@
       </c>
       <c r="AW36" s="100">
         <f t="shared" si="44"/>
-        <v>4.987322014110631E-2</v>
+        <v>0.10324241892739054</v>
       </c>
       <c r="AX36" s="100">
         <f t="shared" si="45"/>
-        <v>5.955423716350907E-2</v>
+        <v>0.10505409015652346</v>
       </c>
       <c r="AY36" s="100"/>
       <c r="AZ36" s="100">
         <f t="shared" si="46"/>
-        <v>0.99762716918950312</v>
+        <v>0.838831669675139</v>
       </c>
       <c r="BA36" s="100">
         <f t="shared" si="47"/>
-        <v>1.4435893914142767E-2</v>
+        <v>3.6056886347119142E-2</v>
       </c>
       <c r="BB36" s="100">
         <f t="shared" si="48"/>
-        <v>-1.2063063103645943E-2</v>
+        <v>0.12511144397774188</v>
       </c>
       <c r="BC36" s="100">
         <f t="shared" si="49"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="BD36" s="100">
         <f t="shared" si="50"/>
-        <v>9.7045217445049826E-3</v>
+        <v>0.11386803193655001</v>
       </c>
       <c r="BE36" s="100">
         <f t="shared" si="51"/>
-        <v>-1.2063063103645943E-2</v>
+        <v>0.12511144397774188</v>
       </c>
       <c r="BF36" s="100"/>
       <c r="BG36" s="100">
         <f t="shared" si="52"/>
-        <v>0.96226151527160353</v>
+        <v>0.57360429607571162</v>
       </c>
       <c r="BH36" s="100">
         <f t="shared" si="53"/>
-        <v>0.22959444036617227</v>
+        <v>9.539406038585943E-2</v>
       </c>
       <c r="BI36" s="100">
         <f t="shared" si="54"/>
-        <v>-0.19185595563777574</v>
+        <v>0.33100164353842904</v>
       </c>
       <c r="BJ36" s="100">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="BK36" s="100">
         <f t="shared" si="55"/>
-        <v>0.15434473626659936</v>
+        <v>0.30125546088485522</v>
       </c>
       <c r="BL36" s="100">
         <f t="shared" si="56"/>
-        <v>-0.19185595563777574</v>
+        <v>0.33100164353842904</v>
       </c>
       <c r="BM36" s="100"/>
       <c r="BN36" s="3">
         <f t="shared" si="9"/>
-        <v>0.938803363206974</v>
+        <v>0.85061880204987594</v>
       </c>
       <c r="BO36" s="92">
         <f t="shared" si="10"/>
-        <v>8.8614699508171688E-4</v>
+        <v>4.5238440276580548E-2</v>
       </c>
       <c r="BP36" s="3">
         <f t="shared" si="11"/>
-        <v>6.0310489797944365E-2</v>
+        <v>0.10414275767354357</v>
       </c>
       <c r="BQ36">
         <f t="shared" si="57"/>
@@ -48138,48 +48203,48 @@
       </c>
       <c r="BR36" s="100">
         <f t="shared" si="58"/>
-        <v>3.5843511932105374E-2</v>
+        <v>0.11236370051977551</v>
       </c>
       <c r="BS36" s="100">
         <f t="shared" si="59"/>
-        <v>6.0310489797944365E-2</v>
+        <v>0.10414275767354357</v>
       </c>
       <c r="BT36" s="100"/>
       <c r="BU36" s="3">
         <f t="shared" si="60"/>
-        <v>0.95043471391193435</v>
+        <v>0.78642232194175909</v>
       </c>
       <c r="BV36" s="92">
         <f t="shared" si="61"/>
-        <v>-1.1492423506398603E-2</v>
+        <v>0.11729460847915593</v>
       </c>
       <c r="BW36" s="3">
         <f t="shared" si="62"/>
-        <v>6.1057709594464382E-2</v>
+        <v>9.6283069579084946E-2</v>
       </c>
       <c r="BX36">
         <f t="shared" si="63"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="BY36" s="100">
         <f t="shared" si="64"/>
-        <v>2.1981377460345175E-2</v>
+        <v>0.19102920369975301</v>
       </c>
       <c r="BZ36" s="100">
         <f t="shared" si="65"/>
-        <v>6.1057709594464382E-2</v>
+        <v>9.6283069579084946E-2</v>
       </c>
       <c r="CB36" s="103">
         <f>'Amphibole P-T calcs'!EU36</f>
-        <v>7.2228905425347563</v>
+        <v>6.5310052714089259</v>
       </c>
       <c r="CC36" s="103">
         <f>'Amphibole P-T calcs'!EV36</f>
-        <v>2.7180731381270806E-2</v>
+        <v>0.13867065801452177</v>
       </c>
       <c r="CD36" s="103">
         <f>'Amphibole P-T calcs'!EW36</f>
-        <v>0.51433358051645073</v>
+        <v>2.3383898278496118</v>
       </c>
       <c r="CE36" s="103">
         <f>'Amphibole P-T calcs'!EX36</f>
@@ -48191,75 +48256,75 @@
       </c>
       <c r="CG36" s="103">
         <f>'Amphibole P-T calcs'!EZ36</f>
-        <v>1.7644716746759623</v>
+        <v>2.3922242015637289</v>
       </c>
       <c r="CH36" s="103">
         <f>'Amphibole P-T calcs'!FA36</f>
-        <v>5.0618806290426255E-2</v>
+        <v>3.9677298300538379E-2</v>
       </c>
       <c r="CI36" s="103">
         <f>'Amphibole P-T calcs'!FB36</f>
-        <v>5.6831964678309523</v>
+        <v>1.7435916398005513</v>
       </c>
       <c r="CJ36" s="103">
         <f>'Amphibole P-T calcs'!FC36</f>
-        <v>0.22783628143101728</v>
+        <v>1.6676527837275341</v>
       </c>
       <c r="CK36" s="103">
         <f>'Amphibole P-T calcs'!FD36</f>
-        <v>2.6946691732164609E-3</v>
+        <v>0.44826397711494792</v>
       </c>
       <c r="CL36" s="103">
         <f>'Amphibole P-T calcs'!FE36</f>
-        <v>1.7730331566081969E-3</v>
+        <v>0.17157097485771278</v>
       </c>
       <c r="CM36">
         <f t="shared" si="66"/>
-        <v>7.4982869487973414</v>
+        <v>4.1754931396648187</v>
       </c>
       <c r="CN36">
         <f t="shared" si="67"/>
-        <v>15.444376980700232</v>
+        <v>15.431369334337532</v>
       </c>
       <c r="CO36">
         <f t="shared" si="68"/>
-        <v>15.262691803229817</v>
+        <v>13.183558896937877</v>
       </c>
       <c r="CQ36" s="3">
         <f t="shared" si="12"/>
-        <v>0.46767121467966638</v>
+        <v>0.42322914641646753</v>
       </c>
       <c r="CR36" s="3">
         <f t="shared" si="13"/>
-        <v>1.7599111582964262E-3</v>
+        <v>8.9862833952107524E-3</v>
       </c>
       <c r="CS36" s="3">
         <f t="shared" si="14"/>
-        <v>3.3302319747774728E-2</v>
+        <v>0.15153482346160169</v>
       </c>
       <c r="CT36" s="3">
         <f t="shared" si="15"/>
-        <v>0.114246866473209</v>
+        <v>0.1550234557759308</v>
       </c>
       <c r="CU36" s="3">
         <f t="shared" si="16"/>
-        <v>0.36797835710257842</v>
+        <v>0.11299007897638422</v>
       </c>
       <c r="CV36" s="3">
         <f t="shared" si="17"/>
-        <v>1.4752053884447945E-2</v>
+        <v>0.10806900849795041</v>
       </c>
       <c r="CW36" s="3">
         <f t="shared" si="18"/>
-        <v>1.7447574457576386E-4</v>
+        <v>2.9048878774321156E-2</v>
       </c>
       <c r="CX36" s="3">
         <f t="shared" si="19"/>
-        <v>1.1480120945142906E-4</v>
+        <v>1.1118324702133656E-2</v>
       </c>
       <c r="CY36" s="3">
         <f t="shared" si="69"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>
